--- a/Levels/Level_4/MAPMAKER.xlsx
+++ b/Levels/Level_4/MAPMAKER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Texas\Documents\GitHub\FyreWall\Levels\Level_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2314C3-475E-44FD-BD95-35EBE3476CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF19272-36A5-41C1-8AC7-74F0E0252E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="12">
   <si>
     <t>Level 1</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>{</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GO51"/>
   <sheetViews>
-    <sheetView topLeftCell="BO12" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="BO16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:GN51"/>
     </sheetView>
   </sheetViews>
@@ -607,41 +604,41 @@
       <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="6">
-        <v>5</v>
-      </c>
-      <c r="T2" s="6">
-        <v>5</v>
-      </c>
-      <c r="U2" s="6">
-        <v>5</v>
-      </c>
-      <c r="V2" s="6">
-        <v>5</v>
-      </c>
-      <c r="W2" s="6">
-        <v>5</v>
-      </c>
-      <c r="X2" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>5</v>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
       </c>
       <c r="AE2" s="1">
         <v>1</v>
@@ -904,14 +901,14 @@
       <c r="DM2" s="1">
         <v>1</v>
       </c>
-      <c r="DN2" s="6">
-        <v>5</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>5</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>5</v>
+      <c r="DN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>1</v>
       </c>
       <c r="DQ2" s="1">
         <v>1</v>
@@ -1299,8 +1296,8 @@
       <c r="AY3" s="2">
         <v>0</v>
       </c>
-      <c r="AZ3" s="2">
-        <v>0</v>
+      <c r="AZ3" s="1">
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1311,8 +1308,8 @@
       <c r="BC3" s="2">
         <v>0</v>
       </c>
-      <c r="BD3" s="2">
-        <v>0</v>
+      <c r="BD3" s="1">
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1338,14 +1335,14 @@
       <c r="BL3" s="2">
         <v>0</v>
       </c>
-      <c r="BM3" s="2">
-        <v>0</v>
+      <c r="BM3" s="1">
+        <v>1</v>
       </c>
       <c r="BN3" s="2">
         <v>0</v>
       </c>
-      <c r="BO3" s="1">
-        <v>1</v>
+      <c r="BO3" s="2">
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1892,8 +1889,8 @@
       <c r="AY4" s="2">
         <v>0</v>
       </c>
-      <c r="AZ4" s="2">
-        <v>0</v>
+      <c r="AZ4" s="1">
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1904,8 +1901,8 @@
       <c r="BC4" s="2">
         <v>0</v>
       </c>
-      <c r="BD4" s="2">
-        <v>0</v>
+      <c r="BD4" s="1">
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1931,14 +1928,14 @@
       <c r="BL4" s="2">
         <v>0</v>
       </c>
-      <c r="BM4" s="2">
-        <v>0</v>
+      <c r="BM4" s="1">
+        <v>1</v>
       </c>
       <c r="BN4" s="2">
         <v>0</v>
       </c>
-      <c r="BO4" s="1">
-        <v>1</v>
+      <c r="BO4" s="2">
+        <v>0</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -2338,11 +2335,11 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2383,8 +2380,8 @@
       <c r="Q5" s="2">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>0</v>
+      <c r="R5" s="1">
+        <v>1</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -2485,8 +2482,8 @@
       <c r="AY5" s="2">
         <v>0</v>
       </c>
-      <c r="AZ5" s="2">
-        <v>0</v>
+      <c r="AZ5" s="1">
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -2497,8 +2494,8 @@
       <c r="BC5" s="2">
         <v>0</v>
       </c>
-      <c r="BD5" s="2">
-        <v>0</v>
+      <c r="BD5" s="1">
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -2524,14 +2521,14 @@
       <c r="BL5" s="2">
         <v>0</v>
       </c>
-      <c r="BM5" s="2">
-        <v>0</v>
+      <c r="BM5" s="1">
+        <v>1</v>
       </c>
       <c r="BN5" s="2">
         <v>0</v>
       </c>
-      <c r="BO5" s="1">
-        <v>1</v>
+      <c r="BO5" s="2">
+        <v>0</v>
       </c>
       <c r="BP5" s="2">
         <v>0</v>
@@ -2931,11 +2928,11 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2943,29 +2940,29 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -2976,8 +2973,8 @@
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
+      <c r="R6" s="1">
+        <v>1</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -3078,8 +3075,8 @@
       <c r="AY6" s="2">
         <v>0</v>
       </c>
-      <c r="AZ6" s="2">
-        <v>0</v>
+      <c r="AZ6" s="1">
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -3090,8 +3087,8 @@
       <c r="BC6" s="2">
         <v>0</v>
       </c>
-      <c r="BD6" s="2">
-        <v>0</v>
+      <c r="BD6" s="1">
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -3117,14 +3114,14 @@
       <c r="BL6" s="2">
         <v>0</v>
       </c>
-      <c r="BM6" s="2">
-        <v>0</v>
+      <c r="BM6" s="1">
+        <v>1</v>
       </c>
       <c r="BN6" s="2">
         <v>0</v>
       </c>
-      <c r="BO6" s="1">
-        <v>1</v>
+      <c r="BO6" s="2">
+        <v>0</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -3536,11 +3533,11 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -3557,8 +3554,8 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
+      <c r="N7" s="1">
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -3569,8 +3566,8 @@
       <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
+      <c r="R7" s="1">
+        <v>1</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -3671,8 +3668,8 @@
       <c r="AY7" s="2">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2">
-        <v>0</v>
+      <c r="AZ7" s="1">
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -3683,8 +3680,8 @@
       <c r="BC7" s="2">
         <v>0</v>
       </c>
-      <c r="BD7" s="2">
-        <v>0</v>
+      <c r="BD7" s="1">
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -3710,14 +3707,14 @@
       <c r="BL7" s="2">
         <v>0</v>
       </c>
-      <c r="BM7" s="2">
-        <v>0</v>
+      <c r="BM7" s="1">
+        <v>1</v>
       </c>
       <c r="BN7" s="2">
         <v>0</v>
       </c>
-      <c r="BO7" s="1">
-        <v>1</v>
+      <c r="BO7" s="2">
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -4135,11 +4132,11 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -4150,8 +4147,8 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
+      <c r="N8" s="1">
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -4189,17 +4186,17 @@
       <c r="Z8" s="1">
         <v>1</v>
       </c>
-      <c r="AA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>1</v>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
       </c>
       <c r="AE8" s="2">
         <v>0</v>
@@ -4264,8 +4261,8 @@
       <c r="AY8" s="2">
         <v>0</v>
       </c>
-      <c r="AZ8" s="2">
-        <v>0</v>
+      <c r="AZ8" s="1">
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -4276,8 +4273,8 @@
       <c r="BC8" s="2">
         <v>0</v>
       </c>
-      <c r="BD8" s="2">
-        <v>0</v>
+      <c r="BD8" s="1">
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -4303,14 +4300,14 @@
       <c r="BL8" s="2">
         <v>0</v>
       </c>
-      <c r="BM8" s="2">
-        <v>0</v>
+      <c r="BM8" s="1">
+        <v>1</v>
       </c>
       <c r="BN8" s="2">
         <v>0</v>
       </c>
-      <c r="BO8" s="1">
-        <v>1</v>
+      <c r="BO8" s="2">
+        <v>0</v>
       </c>
       <c r="BP8" s="2">
         <v>0</v>
@@ -4734,11 +4731,11 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -4779,8 +4776,8 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="2">
-        <v>0</v>
+      <c r="Z9" s="1">
+        <v>1</v>
       </c>
       <c r="AA9" s="2">
         <v>0</v>
@@ -4791,8 +4788,8 @@
       <c r="AC9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="1">
-        <v>1</v>
+      <c r="AD9" s="2">
+        <v>0</v>
       </c>
       <c r="AE9" s="2">
         <v>0</v>
@@ -4857,8 +4854,8 @@
       <c r="AY9" s="2">
         <v>0</v>
       </c>
-      <c r="AZ9" s="2">
-        <v>0</v>
+      <c r="AZ9" s="1">
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -4869,8 +4866,8 @@
       <c r="BC9" s="2">
         <v>0</v>
       </c>
-      <c r="BD9" s="2">
-        <v>0</v>
+      <c r="BD9" s="1">
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -4896,14 +4893,14 @@
       <c r="BL9" s="2">
         <v>0</v>
       </c>
-      <c r="BM9" s="2">
-        <v>0</v>
+      <c r="BM9" s="1">
+        <v>1</v>
       </c>
       <c r="BN9" s="2">
         <v>0</v>
       </c>
-      <c r="BO9" s="1">
-        <v>1</v>
+      <c r="BO9" s="2">
+        <v>0</v>
       </c>
       <c r="BP9" s="2">
         <v>0</v>
@@ -5333,11 +5330,11 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -5363,8 +5360,8 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="1">
-        <v>1</v>
+      <c r="W10" s="2">
+        <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -5372,8 +5369,8 @@
       <c r="Y10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="2">
-        <v>0</v>
+      <c r="Z10" s="1">
+        <v>1</v>
       </c>
       <c r="AA10" s="2">
         <v>0</v>
@@ -5384,8 +5381,8 @@
       <c r="AC10" s="2">
         <v>0</v>
       </c>
-      <c r="AD10" s="1">
-        <v>1</v>
+      <c r="AD10" s="2">
+        <v>0</v>
       </c>
       <c r="AE10" s="2">
         <v>0</v>
@@ -5450,8 +5447,8 @@
       <c r="AY10" s="2">
         <v>0</v>
       </c>
-      <c r="AZ10" s="2">
-        <v>0</v>
+      <c r="AZ10" s="1">
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -5462,8 +5459,8 @@
       <c r="BC10" s="2">
         <v>0</v>
       </c>
-      <c r="BD10" s="2">
-        <v>0</v>
+      <c r="BD10" s="1">
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -5489,14 +5486,14 @@
       <c r="BL10" s="2">
         <v>0</v>
       </c>
-      <c r="BM10" s="2">
-        <v>0</v>
+      <c r="BM10" s="1">
+        <v>1</v>
       </c>
       <c r="BN10" s="2">
         <v>0</v>
       </c>
-      <c r="BO10" s="1">
-        <v>1</v>
+      <c r="BO10" s="2">
+        <v>0</v>
       </c>
       <c r="BP10" s="2">
         <v>0</v>
@@ -5932,11 +5929,11 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -5965,8 +5962,8 @@
       <c r="Y11" s="2">
         <v>0</v>
       </c>
-      <c r="Z11" s="2">
-        <v>0</v>
+      <c r="Z11" s="1">
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -5977,8 +5974,8 @@
       <c r="AC11" s="2">
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
-        <v>1</v>
+      <c r="AD11" s="2">
+        <v>0</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -6043,8 +6040,8 @@
       <c r="AY11" s="2">
         <v>0</v>
       </c>
-      <c r="AZ11" s="2">
-        <v>0</v>
+      <c r="AZ11" s="1">
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -6055,8 +6052,8 @@
       <c r="BC11" s="2">
         <v>0</v>
       </c>
-      <c r="BD11" s="2">
-        <v>0</v>
+      <c r="BD11" s="1">
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -6082,8 +6079,8 @@
       <c r="BL11" s="2">
         <v>0</v>
       </c>
-      <c r="BM11" s="2">
-        <v>0</v>
+      <c r="BM11" s="1">
+        <v>1</v>
       </c>
       <c r="BN11" s="2">
         <v>0</v>
@@ -6489,38 +6486,38 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -6558,11 +6555,11 @@
       <c r="Y12" s="2">
         <v>0</v>
       </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
         <v>0</v>
@@ -6570,8 +6567,8 @@
       <c r="AC12" s="2">
         <v>0</v>
       </c>
-      <c r="AD12" s="1">
-        <v>1</v>
+      <c r="AD12" s="2">
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -6636,8 +6633,8 @@
       <c r="AY12" s="2">
         <v>0</v>
       </c>
-      <c r="AZ12" s="2">
-        <v>0</v>
+      <c r="AZ12" s="1">
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -6648,8 +6645,8 @@
       <c r="BC12" s="2">
         <v>0</v>
       </c>
-      <c r="BD12" s="2">
-        <v>0</v>
+      <c r="BD12" s="1">
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -6675,8 +6672,8 @@
       <c r="BL12" s="2">
         <v>0</v>
       </c>
-      <c r="BM12" s="2">
-        <v>0</v>
+      <c r="BM12" s="1">
+        <v>1</v>
       </c>
       <c r="BN12" s="2">
         <v>0</v>
@@ -7091,8 +7088,8 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -7112,8 +7109,8 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
+      <c r="M13" s="1">
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -7145,14 +7142,14 @@
       <c r="W13" s="2">
         <v>0</v>
       </c>
-      <c r="X13" s="1">
-        <v>1</v>
+      <c r="X13" s="2">
+        <v>0</v>
       </c>
       <c r="Y13" s="2">
         <v>0</v>
       </c>
-      <c r="Z13" s="2">
-        <v>0</v>
+      <c r="Z13" s="1">
+        <v>1</v>
       </c>
       <c r="AA13" s="2">
         <v>0</v>
@@ -7163,8 +7160,8 @@
       <c r="AC13" s="2">
         <v>0</v>
       </c>
-      <c r="AD13" s="1">
-        <v>1</v>
+      <c r="AD13" s="2">
+        <v>0</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -7229,8 +7226,8 @@
       <c r="AY13" s="2">
         <v>0</v>
       </c>
-      <c r="AZ13" s="2">
-        <v>0</v>
+      <c r="AZ13" s="1">
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -7241,8 +7238,8 @@
       <c r="BC13" s="2">
         <v>0</v>
       </c>
-      <c r="BD13" s="2">
-        <v>0</v>
+      <c r="BD13" s="1">
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -7268,8 +7265,8 @@
       <c r="BL13" s="2">
         <v>0</v>
       </c>
-      <c r="BM13" s="2">
-        <v>0</v>
+      <c r="BM13" s="1">
+        <v>1</v>
       </c>
       <c r="BN13" s="2">
         <v>0</v>
@@ -7684,8 +7681,8 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -7705,8 +7702,8 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
+      <c r="M14" s="1">
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -7744,8 +7741,8 @@
       <c r="Y14" s="2">
         <v>0</v>
       </c>
-      <c r="Z14" s="2">
-        <v>0</v>
+      <c r="Z14" s="1">
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
@@ -7756,8 +7753,8 @@
       <c r="AC14" s="2">
         <v>0</v>
       </c>
-      <c r="AD14" s="1">
-        <v>1</v>
+      <c r="AD14" s="2">
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -7822,8 +7819,8 @@
       <c r="AY14" s="2">
         <v>0</v>
       </c>
-      <c r="AZ14" s="2">
-        <v>0</v>
+      <c r="AZ14" s="1">
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -7834,8 +7831,8 @@
       <c r="BC14" s="2">
         <v>0</v>
       </c>
-      <c r="BD14" s="2">
-        <v>0</v>
+      <c r="BD14" s="1">
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -7861,8 +7858,8 @@
       <c r="BL14" s="2">
         <v>0</v>
       </c>
-      <c r="BM14" s="2">
-        <v>0</v>
+      <c r="BM14" s="1">
+        <v>1</v>
       </c>
       <c r="BN14" s="2">
         <v>0</v>
@@ -8277,8 +8274,8 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -8298,8 +8295,8 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
+      <c r="M15" s="1">
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -8337,8 +8334,8 @@
       <c r="Y15" s="1">
         <v>1</v>
       </c>
-      <c r="Z15" s="2">
-        <v>0</v>
+      <c r="Z15" s="1">
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
@@ -8349,8 +8346,8 @@
       <c r="AC15" s="2">
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
-        <v>1</v>
+      <c r="AD15" s="2">
+        <v>0</v>
       </c>
       <c r="AE15" s="2">
         <v>0</v>
@@ -8415,8 +8412,8 @@
       <c r="AY15" s="2">
         <v>0</v>
       </c>
-      <c r="AZ15" s="2">
-        <v>0</v>
+      <c r="AZ15" s="1">
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -8427,8 +8424,8 @@
       <c r="BC15" s="2">
         <v>0</v>
       </c>
-      <c r="BD15" s="2">
-        <v>0</v>
+      <c r="BD15" s="1">
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -8454,8 +8451,8 @@
       <c r="BL15" s="2">
         <v>0</v>
       </c>
-      <c r="BM15" s="2">
-        <v>0</v>
+      <c r="BM15" s="1">
+        <v>1</v>
       </c>
       <c r="BN15" s="2">
         <v>0</v>
@@ -8870,8 +8867,8 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -8891,8 +8888,8 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
+      <c r="M16" s="1">
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -8930,8 +8927,8 @@
       <c r="Y16" s="2">
         <v>0</v>
       </c>
-      <c r="Z16" s="2">
-        <v>0</v>
+      <c r="Z16" s="1">
+        <v>1</v>
       </c>
       <c r="AA16" s="2">
         <v>0</v>
@@ -8942,8 +8939,8 @@
       <c r="AC16" s="2">
         <v>0</v>
       </c>
-      <c r="AD16" s="1">
-        <v>1</v>
+      <c r="AD16" s="2">
+        <v>0</v>
       </c>
       <c r="AE16" s="2">
         <v>0</v>
@@ -9008,8 +9005,8 @@
       <c r="AY16" s="2">
         <v>0</v>
       </c>
-      <c r="AZ16" s="2">
-        <v>0</v>
+      <c r="AZ16" s="1">
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -9020,8 +9017,8 @@
       <c r="BC16" s="2">
         <v>0</v>
       </c>
-      <c r="BD16" s="2">
-        <v>0</v>
+      <c r="BD16" s="1">
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -9047,8 +9044,8 @@
       <c r="BL16" s="2">
         <v>0</v>
       </c>
-      <c r="BM16" s="2">
-        <v>0</v>
+      <c r="BM16" s="1">
+        <v>1</v>
       </c>
       <c r="BN16" s="2">
         <v>0</v>
@@ -9463,8 +9460,8 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -9484,8 +9481,8 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
+      <c r="M17" s="1">
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -9523,8 +9520,8 @@
       <c r="Y17" s="2">
         <v>0</v>
       </c>
-      <c r="Z17" s="2">
-        <v>0</v>
+      <c r="Z17" s="1">
+        <v>1</v>
       </c>
       <c r="AA17" s="2">
         <v>0</v>
@@ -9535,8 +9532,8 @@
       <c r="AC17" s="2">
         <v>0</v>
       </c>
-      <c r="AD17" s="1">
-        <v>1</v>
+      <c r="AD17" s="2">
+        <v>0</v>
       </c>
       <c r="AE17" s="2">
         <v>0</v>
@@ -9601,8 +9598,8 @@
       <c r="AY17" s="2">
         <v>0</v>
       </c>
-      <c r="AZ17" s="2">
-        <v>0</v>
+      <c r="AZ17" s="1">
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -9613,8 +9610,8 @@
       <c r="BC17" s="2">
         <v>0</v>
       </c>
-      <c r="BD17" s="2">
-        <v>0</v>
+      <c r="BD17" s="1">
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -9640,8 +9637,8 @@
       <c r="BL17" s="2">
         <v>0</v>
       </c>
-      <c r="BM17" s="2">
-        <v>0</v>
+      <c r="BM17" s="1">
+        <v>1</v>
       </c>
       <c r="BN17" s="2">
         <v>0</v>
@@ -10056,8 +10053,8 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
+      <c r="F18" s="1">
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -10077,8 +10074,8 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
+      <c r="M18" s="1">
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -10116,8 +10113,8 @@
       <c r="Y18" s="2">
         <v>0</v>
       </c>
-      <c r="Z18" s="2">
-        <v>0</v>
+      <c r="Z18" s="1">
+        <v>1</v>
       </c>
       <c r="AA18" s="2">
         <v>0</v>
@@ -10128,8 +10125,8 @@
       <c r="AC18" s="2">
         <v>0</v>
       </c>
-      <c r="AD18" s="1">
-        <v>1</v>
+      <c r="AD18" s="2">
+        <v>0</v>
       </c>
       <c r="AE18" s="2">
         <v>0</v>
@@ -10194,8 +10191,8 @@
       <c r="AY18" s="2">
         <v>0</v>
       </c>
-      <c r="AZ18" s="2">
-        <v>0</v>
+      <c r="AZ18" s="1">
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -10206,8 +10203,8 @@
       <c r="BC18" s="2">
         <v>0</v>
       </c>
-      <c r="BD18" s="2">
-        <v>0</v>
+      <c r="BD18" s="1">
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -10233,8 +10230,8 @@
       <c r="BL18" s="2">
         <v>0</v>
       </c>
-      <c r="BM18" s="2">
-        <v>0</v>
+      <c r="BM18" s="1">
+        <v>1</v>
       </c>
       <c r="BN18" s="2">
         <v>0</v>
@@ -10649,8 +10646,8 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
+      <c r="F19" s="1">
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -10670,8 +10667,8 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
+      <c r="M19" s="1">
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -10709,86 +10706,86 @@
       <c r="Y19" s="2">
         <v>0</v>
       </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0</v>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
         <v>1</v>
       </c>
-      <c r="AE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="2">
-        <v>0</v>
+      <c r="AE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -10799,35 +10796,35 @@
       <c r="BC19" s="2">
         <v>0</v>
       </c>
-      <c r="BD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="2">
-        <v>0</v>
+      <c r="BD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>1</v>
       </c>
       <c r="BN19" s="2">
         <v>0</v>
@@ -11242,8 +11239,8 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -11263,8 +11260,8 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
+      <c r="M20" s="1">
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -11302,8 +11299,8 @@
       <c r="Y20" s="2">
         <v>0</v>
       </c>
-      <c r="Z20" s="1">
-        <v>1</v>
+      <c r="Z20" s="2">
+        <v>0</v>
       </c>
       <c r="AA20" s="2">
         <v>0</v>
@@ -11314,8 +11311,8 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="1">
-        <v>1</v>
+      <c r="AD20" s="2">
+        <v>0</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -11835,8 +11832,8 @@
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
+      <c r="F21" s="1">
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -11856,8 +11853,8 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="2">
-        <v>0</v>
+      <c r="M21" s="1">
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -12428,8 +12425,8 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -12449,8 +12446,8 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
+      <c r="M22" s="1">
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -13021,8 +13018,8 @@
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
-        <v>0</v>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -13042,8 +13039,8 @@
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
+      <c r="M23" s="1">
+        <v>1</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -13081,8 +13078,8 @@
       <c r="Y23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="1">
-        <v>1</v>
+      <c r="Z23" s="2">
+        <v>0</v>
       </c>
       <c r="AA23" s="2">
         <v>0</v>
@@ -13096,11 +13093,11 @@
       <c r="AD23" s="2">
         <v>0</v>
       </c>
-      <c r="AE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>0</v>
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>1</v>
       </c>
       <c r="AG23" s="2">
         <v>0</v>
@@ -13117,17 +13114,17 @@
       <c r="AK23" s="2">
         <v>0</v>
       </c>
-      <c r="AL23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>1</v>
+      <c r="AL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
         <v>1</v>
       </c>
-      <c r="AO23" s="2">
-        <v>0</v>
+      <c r="AO23" s="1">
+        <v>1</v>
       </c>
       <c r="AP23" s="2">
         <v>0</v>
@@ -13147,8 +13144,8 @@
       <c r="AU23" s="2">
         <v>0</v>
       </c>
-      <c r="AV23" s="1">
-        <v>1</v>
+      <c r="AV23" s="2">
+        <v>0</v>
       </c>
       <c r="AW23" s="1">
         <v>1</v>
@@ -13183,8 +13180,8 @@
       <c r="BG23" s="1">
         <v>1</v>
       </c>
-      <c r="BH23" s="1">
-        <v>1</v>
+      <c r="BH23" s="2">
+        <v>0</v>
       </c>
       <c r="BI23" s="2">
         <v>0</v>
@@ -13614,8 +13611,8 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -13635,8 +13632,8 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
+      <c r="M24" s="1">
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -13851,8 +13848,8 @@
       <c r="CF24" s="2">
         <v>0</v>
       </c>
-      <c r="CG24" s="1">
-        <v>1</v>
+      <c r="CG24" s="2">
+        <v>0</v>
       </c>
       <c r="CH24" s="2">
         <v>0</v>
@@ -14198,14 +14195,14 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -14231,17 +14228,17 @@
       <c r="M25" s="1">
         <v>1</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1</v>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -14312,23 +14309,23 @@
       <c r="AN25" s="3">
         <v>2</v>
       </c>
-      <c r="AO25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AR25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AS25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AT25" s="5">
-        <v>4</v>
+      <c r="AO25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>2</v>
       </c>
       <c r="AU25" s="3">
         <v>2</v>
@@ -14342,26 +14339,26 @@
       <c r="AX25" s="3">
         <v>2</v>
       </c>
-      <c r="AY25" s="5">
-        <v>4</v>
-      </c>
-      <c r="AZ25" s="5">
-        <v>4</v>
-      </c>
-      <c r="BA25" s="5">
-        <v>4</v>
-      </c>
-      <c r="BB25" s="5">
-        <v>4</v>
-      </c>
-      <c r="BC25" s="5">
-        <v>4</v>
-      </c>
-      <c r="BD25" s="5">
-        <v>4</v>
-      </c>
-      <c r="BE25" s="5">
-        <v>4</v>
+      <c r="AY25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>2</v>
       </c>
       <c r="BF25" s="3">
         <v>2</v>
@@ -14390,179 +14387,179 @@
       <c r="BN25" s="3">
         <v>2</v>
       </c>
-      <c r="BO25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS25" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT25" s="1">
-        <v>1</v>
+      <c r="BO25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BQ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BS25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BU25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BV25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY25" s="3">
+        <v>2</v>
+      </c>
+      <c r="BZ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CD25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CN25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CO25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CS25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CT25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CU25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CV25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CY25" s="3">
+        <v>2</v>
+      </c>
+      <c r="CZ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DA25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DB25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DC25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DE25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DF25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DG25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DH25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DJ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DL25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DM25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DN25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DP25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DQ25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DS25" s="3">
+        <v>2</v>
+      </c>
+      <c r="DT25" s="3">
+        <v>2</v>
       </c>
       <c r="DU25" s="1">
         <v>1</v>
@@ -14844,41 +14841,41 @@
       <c r="R28" s="1">
         <v>1</v>
       </c>
-      <c r="S28" s="6">
-        <v>5</v>
-      </c>
-      <c r="T28" s="6">
-        <v>5</v>
-      </c>
-      <c r="U28" s="6">
-        <v>5</v>
-      </c>
-      <c r="V28" s="6">
-        <v>5</v>
-      </c>
-      <c r="W28" s="6">
-        <v>5</v>
-      </c>
-      <c r="X28" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD28" s="6">
-        <v>5</v>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
         <v>1</v>
@@ -15536,8 +15533,8 @@
       <c r="AY29" s="2">
         <v>0</v>
       </c>
-      <c r="AZ29" s="2">
-        <v>0</v>
+      <c r="AZ29" s="1">
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -15548,8 +15545,8 @@
       <c r="BC29" s="2">
         <v>0</v>
       </c>
-      <c r="BD29" s="2">
-        <v>0</v>
+      <c r="BD29" s="1">
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
         <v>0</v>
@@ -15575,14 +15572,14 @@
       <c r="BL29" s="2">
         <v>0</v>
       </c>
-      <c r="BM29" s="2">
-        <v>0</v>
+      <c r="BM29" s="1">
+        <v>1</v>
       </c>
       <c r="BN29" s="2">
         <v>0</v>
       </c>
-      <c r="BO29" s="1">
-        <v>1</v>
+      <c r="BO29" s="2">
+        <v>0</v>
       </c>
       <c r="BP29" s="2">
         <v>0</v>
@@ -16129,8 +16126,8 @@
       <c r="AY30" s="2">
         <v>0</v>
       </c>
-      <c r="AZ30" s="2">
-        <v>0</v>
+      <c r="AZ30" s="1">
+        <v>1</v>
       </c>
       <c r="BA30" s="2">
         <v>0</v>
@@ -16141,8 +16138,8 @@
       <c r="BC30" s="2">
         <v>0</v>
       </c>
-      <c r="BD30" s="2">
-        <v>0</v>
+      <c r="BD30" s="1">
+        <v>1</v>
       </c>
       <c r="BE30" s="2">
         <v>0</v>
@@ -16168,14 +16165,14 @@
       <c r="BL30" s="2">
         <v>0</v>
       </c>
-      <c r="BM30" s="2">
-        <v>0</v>
+      <c r="BM30" s="1">
+        <v>1</v>
       </c>
       <c r="BN30" s="2">
         <v>0</v>
       </c>
-      <c r="BO30" s="1">
-        <v>1</v>
+      <c r="BO30" s="2">
+        <v>0</v>
       </c>
       <c r="BP30" s="2">
         <v>0</v>
@@ -16620,8 +16617,8 @@
       <c r="Q31" s="2">
         <v>0</v>
       </c>
-      <c r="R31" s="2">
-        <v>0</v>
+      <c r="R31" s="1">
+        <v>1</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -16722,8 +16719,8 @@
       <c r="AY31" s="2">
         <v>0</v>
       </c>
-      <c r="AZ31" s="2">
-        <v>0</v>
+      <c r="AZ31" s="1">
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -16734,8 +16731,8 @@
       <c r="BC31" s="2">
         <v>0</v>
       </c>
-      <c r="BD31" s="2">
-        <v>0</v>
+      <c r="BD31" s="1">
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
         <v>0</v>
@@ -16761,14 +16758,14 @@
       <c r="BL31" s="2">
         <v>0</v>
       </c>
-      <c r="BM31" s="2">
-        <v>0</v>
+      <c r="BM31" s="1">
+        <v>1</v>
       </c>
       <c r="BN31" s="2">
         <v>0</v>
       </c>
-      <c r="BO31" s="1">
-        <v>1</v>
+      <c r="BO31" s="2">
+        <v>0</v>
       </c>
       <c r="BP31" s="2">
         <v>0</v>
@@ -17168,11 +17165,11 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -17180,29 +17177,29 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -17213,8 +17210,8 @@
       <c r="Q32" s="2">
         <v>0</v>
       </c>
-      <c r="R32" s="2">
-        <v>0</v>
+      <c r="R32" s="1">
+        <v>1</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -17315,8 +17312,8 @@
       <c r="AY32" s="2">
         <v>0</v>
       </c>
-      <c r="AZ32" s="2">
-        <v>0</v>
+      <c r="AZ32" s="1">
+        <v>1</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -17327,8 +17324,8 @@
       <c r="BC32" s="2">
         <v>0</v>
       </c>
-      <c r="BD32" s="2">
-        <v>0</v>
+      <c r="BD32" s="1">
+        <v>1</v>
       </c>
       <c r="BE32" s="2">
         <v>0</v>
@@ -17354,14 +17351,14 @@
       <c r="BL32" s="2">
         <v>0</v>
       </c>
-      <c r="BM32" s="2">
-        <v>0</v>
+      <c r="BM32" s="1">
+        <v>1</v>
       </c>
       <c r="BN32" s="2">
         <v>0</v>
       </c>
-      <c r="BO32" s="1">
-        <v>1</v>
+      <c r="BO32" s="2">
+        <v>0</v>
       </c>
       <c r="BP32" s="2">
         <v>0</v>
@@ -17773,11 +17770,11 @@
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -17794,8 +17791,8 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
-        <v>0</v>
+      <c r="N33" s="1">
+        <v>1</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
@@ -17806,8 +17803,8 @@
       <c r="Q33" s="2">
         <v>0</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
+      <c r="R33" s="1">
+        <v>1</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -17908,8 +17905,8 @@
       <c r="AY33" s="2">
         <v>0</v>
       </c>
-      <c r="AZ33" s="2">
-        <v>0</v>
+      <c r="AZ33" s="1">
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -17920,8 +17917,8 @@
       <c r="BC33" s="2">
         <v>0</v>
       </c>
-      <c r="BD33" s="2">
-        <v>0</v>
+      <c r="BD33" s="1">
+        <v>1</v>
       </c>
       <c r="BE33" s="2">
         <v>0</v>
@@ -17947,14 +17944,14 @@
       <c r="BL33" s="2">
         <v>0</v>
       </c>
-      <c r="BM33" s="2">
-        <v>0</v>
+      <c r="BM33" s="1">
+        <v>1</v>
       </c>
       <c r="BN33" s="2">
         <v>0</v>
       </c>
-      <c r="BO33" s="1">
-        <v>1</v>
+      <c r="BO33" s="2">
+        <v>0</v>
       </c>
       <c r="BP33" s="2">
         <v>0</v>
@@ -18372,11 +18369,11 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -18387,8 +18384,8 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="2">
-        <v>0</v>
+      <c r="N34" s="1">
+        <v>1</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -18426,17 +18423,17 @@
       <c r="Z34" s="1">
         <v>1</v>
       </c>
-      <c r="AA34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>1</v>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
       </c>
       <c r="AE34" s="2">
         <v>0</v>
@@ -18444,65 +18441,65 @@
       <c r="AF34" s="2">
         <v>0</v>
       </c>
-      <c r="AG34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>0</v>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>1</v>
       </c>
       <c r="BA34" s="2">
         <v>0</v>
@@ -18513,8 +18510,8 @@
       <c r="BC34" s="2">
         <v>0</v>
       </c>
-      <c r="BD34" s="2">
-        <v>0</v>
+      <c r="BD34" s="1">
+        <v>1</v>
       </c>
       <c r="BE34" s="2">
         <v>0</v>
@@ -18540,14 +18537,14 @@
       <c r="BL34" s="2">
         <v>0</v>
       </c>
-      <c r="BM34" s="2">
-        <v>0</v>
+      <c r="BM34" s="1">
+        <v>1</v>
       </c>
       <c r="BN34" s="2">
         <v>0</v>
       </c>
-      <c r="BO34" s="1">
-        <v>1</v>
+      <c r="BO34" s="2">
+        <v>0</v>
       </c>
       <c r="BP34" s="2">
         <v>0</v>
@@ -18971,11 +18968,11 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1</v>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -19016,8 +19013,8 @@
       <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="Z35" s="2">
-        <v>0</v>
+      <c r="Z35" s="1">
+        <v>1</v>
       </c>
       <c r="AA35" s="2">
         <v>0</v>
@@ -19028,8 +19025,8 @@
       <c r="AC35" s="2">
         <v>0</v>
       </c>
-      <c r="AD35" s="1">
-        <v>1</v>
+      <c r="AD35" s="2">
+        <v>0</v>
       </c>
       <c r="AE35" s="2">
         <v>0</v>
@@ -19094,8 +19091,8 @@
       <c r="AY35" s="2">
         <v>0</v>
       </c>
-      <c r="AZ35" s="2">
-        <v>0</v>
+      <c r="AZ35" s="1">
+        <v>1</v>
       </c>
       <c r="BA35" s="2">
         <v>0</v>
@@ -19106,8 +19103,8 @@
       <c r="BC35" s="2">
         <v>0</v>
       </c>
-      <c r="BD35" s="2">
-        <v>0</v>
+      <c r="BD35" s="1">
+        <v>1</v>
       </c>
       <c r="BE35" s="2">
         <v>0</v>
@@ -19133,14 +19130,14 @@
       <c r="BL35" s="2">
         <v>0</v>
       </c>
-      <c r="BM35" s="2">
-        <v>0</v>
+      <c r="BM35" s="1">
+        <v>1</v>
       </c>
       <c r="BN35" s="2">
         <v>0</v>
       </c>
-      <c r="BO35" s="1">
-        <v>1</v>
+      <c r="BO35" s="2">
+        <v>0</v>
       </c>
       <c r="BP35" s="2">
         <v>0</v>
@@ -19570,11 +19567,11 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -19606,11 +19603,11 @@
       <c r="X36" s="2">
         <v>0</v>
       </c>
-      <c r="Y36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>0</v>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
@@ -19621,8 +19618,8 @@
       <c r="AC36" s="2">
         <v>0</v>
       </c>
-      <c r="AD36" s="1">
-        <v>1</v>
+      <c r="AD36" s="2">
+        <v>0</v>
       </c>
       <c r="AE36" s="2">
         <v>0</v>
@@ -19687,8 +19684,8 @@
       <c r="AY36" s="2">
         <v>0</v>
       </c>
-      <c r="AZ36" s="2">
-        <v>0</v>
+      <c r="AZ36" s="1">
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
         <v>0</v>
@@ -19699,8 +19696,8 @@
       <c r="BC36" s="2">
         <v>0</v>
       </c>
-      <c r="BD36" s="2">
-        <v>0</v>
+      <c r="BD36" s="1">
+        <v>1</v>
       </c>
       <c r="BE36" s="2">
         <v>0</v>
@@ -19726,14 +19723,14 @@
       <c r="BL36" s="2">
         <v>0</v>
       </c>
-      <c r="BM36" s="2">
-        <v>0</v>
+      <c r="BM36" s="1">
+        <v>1</v>
       </c>
       <c r="BN36" s="2">
         <v>0</v>
       </c>
-      <c r="BO36" s="1">
-        <v>1</v>
+      <c r="BO36" s="2">
+        <v>0</v>
       </c>
       <c r="BP36" s="2">
         <v>0</v>
@@ -20169,11 +20166,11 @@
       <c r="N37" s="2">
         <v>0</v>
       </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1</v>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -20202,8 +20199,8 @@
       <c r="Y37" s="2">
         <v>0</v>
       </c>
-      <c r="Z37" s="2">
-        <v>0</v>
+      <c r="Z37" s="1">
+        <v>1</v>
       </c>
       <c r="AA37" s="2">
         <v>0</v>
@@ -20214,8 +20211,8 @@
       <c r="AC37" s="2">
         <v>0</v>
       </c>
-      <c r="AD37" s="1">
-        <v>1</v>
+      <c r="AD37" s="2">
+        <v>0</v>
       </c>
       <c r="AE37" s="2">
         <v>0</v>
@@ -20280,8 +20277,8 @@
       <c r="AY37" s="2">
         <v>0</v>
       </c>
-      <c r="AZ37" s="2">
-        <v>0</v>
+      <c r="AZ37" s="1">
+        <v>1</v>
       </c>
       <c r="BA37" s="2">
         <v>0</v>
@@ -20292,8 +20289,8 @@
       <c r="BC37" s="2">
         <v>0</v>
       </c>
-      <c r="BD37" s="2">
-        <v>0</v>
+      <c r="BD37" s="1">
+        <v>1</v>
       </c>
       <c r="BE37" s="2">
         <v>0</v>
@@ -20319,8 +20316,8 @@
       <c r="BL37" s="2">
         <v>0</v>
       </c>
-      <c r="BM37" s="2">
-        <v>0</v>
+      <c r="BM37" s="1">
+        <v>1</v>
       </c>
       <c r="BN37" s="2">
         <v>0</v>
@@ -20735,29 +20732,29 @@
       <c r="E38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -20765,11 +20762,11 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1</v>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
@@ -20795,20 +20792,20 @@
       <c r="Y38" s="2">
         <v>0</v>
       </c>
-      <c r="Z38" s="2">
-        <v>0</v>
+      <c r="Z38" s="1">
+        <v>1</v>
       </c>
       <c r="AA38" s="2">
         <v>0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>1</v>
+      <c r="AB38" s="2">
+        <v>0</v>
       </c>
       <c r="AC38" s="2">
         <v>0</v>
       </c>
-      <c r="AD38" s="1">
-        <v>1</v>
+      <c r="AD38" s="2">
+        <v>0</v>
       </c>
       <c r="AE38" s="2">
         <v>0</v>
@@ -20873,8 +20870,8 @@
       <c r="AY38" s="2">
         <v>0</v>
       </c>
-      <c r="AZ38" s="2">
-        <v>0</v>
+      <c r="AZ38" s="1">
+        <v>1</v>
       </c>
       <c r="BA38" s="2">
         <v>0</v>
@@ -20885,8 +20882,8 @@
       <c r="BC38" s="2">
         <v>0</v>
       </c>
-      <c r="BD38" s="2">
-        <v>0</v>
+      <c r="BD38" s="1">
+        <v>1</v>
       </c>
       <c r="BE38" s="2">
         <v>0</v>
@@ -20912,8 +20909,8 @@
       <c r="BL38" s="2">
         <v>0</v>
       </c>
-      <c r="BM38" s="2">
-        <v>0</v>
+      <c r="BM38" s="1">
+        <v>1</v>
       </c>
       <c r="BN38" s="2">
         <v>0</v>
@@ -21328,8 +21325,8 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="2">
-        <v>0</v>
+      <c r="F39" s="1">
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -21349,8 +21346,8 @@
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="2">
-        <v>0</v>
+      <c r="M39" s="1">
+        <v>1</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -21388,8 +21385,8 @@
       <c r="Y39" s="2">
         <v>0</v>
       </c>
-      <c r="Z39" s="2">
-        <v>0</v>
+      <c r="Z39" s="1">
+        <v>1</v>
       </c>
       <c r="AA39" s="2">
         <v>0</v>
@@ -21400,8 +21397,8 @@
       <c r="AC39" s="2">
         <v>0</v>
       </c>
-      <c r="AD39" s="1">
-        <v>1</v>
+      <c r="AD39" s="2">
+        <v>0</v>
       </c>
       <c r="AE39" s="2">
         <v>0</v>
@@ -21466,8 +21463,8 @@
       <c r="AY39" s="2">
         <v>0</v>
       </c>
-      <c r="AZ39" s="2">
-        <v>0</v>
+      <c r="AZ39" s="1">
+        <v>1</v>
       </c>
       <c r="BA39" s="2">
         <v>0</v>
@@ -21478,8 +21475,8 @@
       <c r="BC39" s="2">
         <v>0</v>
       </c>
-      <c r="BD39" s="2">
-        <v>0</v>
+      <c r="BD39" s="1">
+        <v>1</v>
       </c>
       <c r="BE39" s="2">
         <v>0</v>
@@ -21505,8 +21502,8 @@
       <c r="BL39" s="2">
         <v>0</v>
       </c>
-      <c r="BM39" s="2">
-        <v>0</v>
+      <c r="BM39" s="1">
+        <v>1</v>
       </c>
       <c r="BN39" s="2">
         <v>0</v>
@@ -21921,8 +21918,8 @@
       <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="2">
-        <v>0</v>
+      <c r="F40" s="1">
+        <v>1</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -21942,8 +21939,8 @@
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
-        <v>0</v>
+      <c r="M40" s="1">
+        <v>1</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -21981,8 +21978,8 @@
       <c r="Y40" s="2">
         <v>0</v>
       </c>
-      <c r="Z40" s="2">
-        <v>0</v>
+      <c r="Z40" s="1">
+        <v>1</v>
       </c>
       <c r="AA40" s="2">
         <v>0</v>
@@ -21993,8 +21990,8 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
-      <c r="AD40" s="1">
-        <v>1</v>
+      <c r="AD40" s="2">
+        <v>0</v>
       </c>
       <c r="AE40" s="2">
         <v>0</v>
@@ -22059,8 +22056,8 @@
       <c r="AY40" s="2">
         <v>0</v>
       </c>
-      <c r="AZ40" s="2">
-        <v>0</v>
+      <c r="AZ40" s="1">
+        <v>1</v>
       </c>
       <c r="BA40" s="2">
         <v>0</v>
@@ -22071,8 +22068,8 @@
       <c r="BC40" s="2">
         <v>0</v>
       </c>
-      <c r="BD40" s="2">
-        <v>0</v>
+      <c r="BD40" s="1">
+        <v>1</v>
       </c>
       <c r="BE40" s="2">
         <v>0</v>
@@ -22098,8 +22095,8 @@
       <c r="BL40" s="2">
         <v>0</v>
       </c>
-      <c r="BM40" s="2">
-        <v>0</v>
+      <c r="BM40" s="1">
+        <v>1</v>
       </c>
       <c r="BN40" s="2">
         <v>0</v>
@@ -22514,8 +22511,8 @@
       <c r="E41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
-        <v>0</v>
+      <c r="F41" s="1">
+        <v>1</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -22535,8 +22532,8 @@
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="2">
-        <v>0</v>
+      <c r="M41" s="1">
+        <v>1</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -22574,8 +22571,8 @@
       <c r="Y41" s="1">
         <v>1</v>
       </c>
-      <c r="Z41" s="2">
-        <v>0</v>
+      <c r="Z41" s="1">
+        <v>1</v>
       </c>
       <c r="AA41" s="2">
         <v>0</v>
@@ -22586,8 +22583,8 @@
       <c r="AC41" s="2">
         <v>0</v>
       </c>
-      <c r="AD41" s="1">
-        <v>1</v>
+      <c r="AD41" s="2">
+        <v>0</v>
       </c>
       <c r="AE41" s="2">
         <v>0</v>
@@ -22652,8 +22649,8 @@
       <c r="AY41" s="2">
         <v>0</v>
       </c>
-      <c r="AZ41" s="2">
-        <v>0</v>
+      <c r="AZ41" s="1">
+        <v>1</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
@@ -22664,8 +22661,8 @@
       <c r="BC41" s="2">
         <v>0</v>
       </c>
-      <c r="BD41" s="2">
-        <v>0</v>
+      <c r="BD41" s="1">
+        <v>1</v>
       </c>
       <c r="BE41" s="2">
         <v>0</v>
@@ -22691,8 +22688,8 @@
       <c r="BL41" s="2">
         <v>0</v>
       </c>
-      <c r="BM41" s="2">
-        <v>0</v>
+      <c r="BM41" s="1">
+        <v>1</v>
       </c>
       <c r="BN41" s="2">
         <v>0</v>
@@ -23107,8 +23104,8 @@
       <c r="E42" s="2">
         <v>0</v>
       </c>
-      <c r="F42" s="2">
-        <v>0</v>
+      <c r="F42" s="1">
+        <v>1</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -23128,8 +23125,8 @@
       <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="2">
-        <v>0</v>
+      <c r="M42" s="1">
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -23167,8 +23164,8 @@
       <c r="Y42" s="2">
         <v>0</v>
       </c>
-      <c r="Z42" s="2">
-        <v>0</v>
+      <c r="Z42" s="1">
+        <v>1</v>
       </c>
       <c r="AA42" s="2">
         <v>0</v>
@@ -23179,8 +23176,8 @@
       <c r="AC42" s="2">
         <v>0</v>
       </c>
-      <c r="AD42" s="1">
-        <v>1</v>
+      <c r="AD42" s="2">
+        <v>0</v>
       </c>
       <c r="AE42" s="2">
         <v>0</v>
@@ -23245,8 +23242,8 @@
       <c r="AY42" s="2">
         <v>0</v>
       </c>
-      <c r="AZ42" s="2">
-        <v>0</v>
+      <c r="AZ42" s="1">
+        <v>1</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -23257,8 +23254,8 @@
       <c r="BC42" s="2">
         <v>0</v>
       </c>
-      <c r="BD42" s="2">
-        <v>0</v>
+      <c r="BD42" s="1">
+        <v>1</v>
       </c>
       <c r="BE42" s="2">
         <v>0</v>
@@ -23284,8 +23281,8 @@
       <c r="BL42" s="2">
         <v>0</v>
       </c>
-      <c r="BM42" s="2">
-        <v>0</v>
+      <c r="BM42" s="1">
+        <v>1</v>
       </c>
       <c r="BN42" s="2">
         <v>0</v>
@@ -23700,8 +23697,8 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="2">
-        <v>0</v>
+      <c r="F43" s="1">
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -23721,8 +23718,8 @@
       <c r="L43" s="2">
         <v>0</v>
       </c>
-      <c r="M43" s="2">
-        <v>0</v>
+      <c r="M43" s="1">
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -23760,8 +23757,8 @@
       <c r="Y43" s="2">
         <v>0</v>
       </c>
-      <c r="Z43" s="2">
-        <v>0</v>
+      <c r="Z43" s="1">
+        <v>1</v>
       </c>
       <c r="AA43" s="2">
         <v>0</v>
@@ -23772,8 +23769,8 @@
       <c r="AC43" s="2">
         <v>0</v>
       </c>
-      <c r="AD43" s="1">
-        <v>1</v>
+      <c r="AD43" s="2">
+        <v>0</v>
       </c>
       <c r="AE43" s="2">
         <v>0</v>
@@ -23838,8 +23835,8 @@
       <c r="AY43" s="2">
         <v>0</v>
       </c>
-      <c r="AZ43" s="2">
-        <v>0</v>
+      <c r="AZ43" s="1">
+        <v>1</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -23850,8 +23847,8 @@
       <c r="BC43" s="2">
         <v>0</v>
       </c>
-      <c r="BD43" s="2">
-        <v>0</v>
+      <c r="BD43" s="1">
+        <v>1</v>
       </c>
       <c r="BE43" s="2">
         <v>0</v>
@@ -23877,8 +23874,8 @@
       <c r="BL43" s="2">
         <v>0</v>
       </c>
-      <c r="BM43" s="2">
-        <v>0</v>
+      <c r="BM43" s="1">
+        <v>1</v>
       </c>
       <c r="BN43" s="2">
         <v>0</v>
@@ -24293,8 +24290,8 @@
       <c r="E44" s="2">
         <v>0</v>
       </c>
-      <c r="F44" s="2">
-        <v>0</v>
+      <c r="F44" s="1">
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -24314,8 +24311,8 @@
       <c r="L44" s="2">
         <v>0</v>
       </c>
-      <c r="M44" s="2">
-        <v>0</v>
+      <c r="M44" s="1">
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -24353,11 +24350,11 @@
       <c r="Y44" s="2">
         <v>0</v>
       </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>1</v>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -24365,8 +24362,8 @@
       <c r="AC44" s="2">
         <v>0</v>
       </c>
-      <c r="AD44" s="1">
-        <v>1</v>
+      <c r="AD44" s="2">
+        <v>0</v>
       </c>
       <c r="AE44" s="2">
         <v>0</v>
@@ -24431,8 +24428,8 @@
       <c r="AY44" s="2">
         <v>0</v>
       </c>
-      <c r="AZ44" s="2">
-        <v>0</v>
+      <c r="AZ44" s="1">
+        <v>1</v>
       </c>
       <c r="BA44" s="2">
         <v>0</v>
@@ -24443,8 +24440,8 @@
       <c r="BC44" s="2">
         <v>0</v>
       </c>
-      <c r="BD44" s="2">
-        <v>0</v>
+      <c r="BD44" s="1">
+        <v>1</v>
       </c>
       <c r="BE44" s="2">
         <v>0</v>
@@ -24470,8 +24467,8 @@
       <c r="BL44" s="2">
         <v>0</v>
       </c>
-      <c r="BM44" s="2">
-        <v>0</v>
+      <c r="BM44" s="1">
+        <v>1</v>
       </c>
       <c r="BN44" s="2">
         <v>0</v>
@@ -24886,8 +24883,8 @@
       <c r="E45" s="2">
         <v>0</v>
       </c>
-      <c r="F45" s="2">
-        <v>0</v>
+      <c r="F45" s="1">
+        <v>1</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -24907,8 +24904,8 @@
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
-        <v>0</v>
+      <c r="M45" s="1">
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -24946,86 +24943,86 @@
       <c r="Y45" s="2">
         <v>0</v>
       </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
+      <c r="Z45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
       </c>
       <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AE45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="2">
-        <v>0</v>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>1</v>
       </c>
       <c r="BA45" s="2">
         <v>0</v>
@@ -25036,35 +25033,35 @@
       <c r="BC45" s="2">
         <v>0</v>
       </c>
-      <c r="BD45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="2">
-        <v>0</v>
+      <c r="BD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM45" s="1">
+        <v>1</v>
       </c>
       <c r="BN45" s="2">
         <v>0</v>
@@ -25479,8 +25476,8 @@
       <c r="E46" s="2">
         <v>0</v>
       </c>
-      <c r="F46" s="2">
-        <v>0</v>
+      <c r="F46" s="1">
+        <v>1</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -25500,8 +25497,8 @@
       <c r="L46" s="2">
         <v>0</v>
       </c>
-      <c r="M46" s="2">
-        <v>0</v>
+      <c r="M46" s="1">
+        <v>1</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -25551,8 +25548,8 @@
       <c r="AC46" s="2">
         <v>0</v>
       </c>
-      <c r="AD46" s="1">
-        <v>1</v>
+      <c r="AD46" s="2">
+        <v>0</v>
       </c>
       <c r="AE46" s="2">
         <v>0</v>
@@ -26072,8 +26069,8 @@
       <c r="E47" s="2">
         <v>0</v>
       </c>
-      <c r="F47" s="2">
-        <v>0</v>
+      <c r="F47" s="1">
+        <v>1</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -26093,8 +26090,8 @@
       <c r="L47" s="2">
         <v>0</v>
       </c>
-      <c r="M47" s="2">
-        <v>0</v>
+      <c r="M47" s="1">
+        <v>1</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -26665,8 +26662,8 @@
       <c r="E48" s="2">
         <v>0</v>
       </c>
-      <c r="F48" s="2">
-        <v>0</v>
+      <c r="F48" s="1">
+        <v>1</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -26686,8 +26683,8 @@
       <c r="L48" s="2">
         <v>0</v>
       </c>
-      <c r="M48" s="2">
-        <v>0</v>
+      <c r="M48" s="1">
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -27258,8 +27255,8 @@
       <c r="E49" s="2">
         <v>0</v>
       </c>
-      <c r="F49" s="2">
-        <v>0</v>
+      <c r="F49" s="1">
+        <v>1</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -27279,8 +27276,8 @@
       <c r="L49" s="2">
         <v>0</v>
       </c>
-      <c r="M49" s="2">
-        <v>0</v>
+      <c r="M49" s="1">
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -27324,8 +27321,8 @@
       <c r="AA49" s="2">
         <v>0</v>
       </c>
-      <c r="AB49" s="1">
-        <v>1</v>
+      <c r="AB49" s="2">
+        <v>0</v>
       </c>
       <c r="AC49" s="2">
         <v>0</v>
@@ -27339,20 +27336,20 @@
       <c r="AF49" s="2">
         <v>0</v>
       </c>
-      <c r="AG49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="1">
-        <v>1</v>
+      <c r="AG49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
         <v>1</v>
       </c>
-      <c r="AJ49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="2">
-        <v>0</v>
+      <c r="AJ49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>1</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -27369,8 +27366,8 @@
       <c r="AP49" s="2">
         <v>0</v>
       </c>
-      <c r="AQ49" s="1">
-        <v>1</v>
+      <c r="AQ49" s="2">
+        <v>0</v>
       </c>
       <c r="AR49" s="1">
         <v>1</v>
@@ -27378,8 +27375,8 @@
       <c r="AS49" s="1">
         <v>1</v>
       </c>
-      <c r="AT49" s="2">
-        <v>0</v>
+      <c r="AT49" s="1">
+        <v>1</v>
       </c>
       <c r="AU49" s="2">
         <v>0</v>
@@ -27399,14 +27396,14 @@
       <c r="AZ49" s="2">
         <v>0</v>
       </c>
-      <c r="BA49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC49" s="1">
-        <v>1</v>
+      <c r="BA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>0</v>
       </c>
       <c r="BD49" s="2">
         <v>0</v>
@@ -27414,11 +27411,11 @@
       <c r="BE49" s="2">
         <v>0</v>
       </c>
-      <c r="BF49" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG49" s="2">
-        <v>0</v>
+      <c r="BF49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG49" s="1">
+        <v>1</v>
       </c>
       <c r="BH49" s="2">
         <v>0</v>
@@ -27429,26 +27426,26 @@
       <c r="BJ49" s="2">
         <v>0</v>
       </c>
-      <c r="BK49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ49" s="1">
-        <v>1</v>
+      <c r="BK49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="2">
+        <v>0</v>
       </c>
       <c r="BR49" s="1">
         <v>1</v>
@@ -27851,8 +27848,8 @@
       <c r="E50" s="2">
         <v>0</v>
       </c>
-      <c r="F50" s="2">
-        <v>0</v>
+      <c r="F50" s="1">
+        <v>1</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -27872,8 +27869,8 @@
       <c r="L50" s="2">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
-        <v>0</v>
+      <c r="M50" s="1">
+        <v>1</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
@@ -28034,8 +28031,8 @@
       <c r="BN50" s="2">
         <v>0</v>
       </c>
-      <c r="BO50" s="1">
-        <v>1</v>
+      <c r="BO50" s="2">
+        <v>0</v>
       </c>
       <c r="BP50" s="2">
         <v>0</v>
@@ -28088,8 +28085,8 @@
       <c r="CF50" s="2">
         <v>0</v>
       </c>
-      <c r="CG50" s="1">
-        <v>1</v>
+      <c r="CG50" s="2">
+        <v>0</v>
       </c>
       <c r="CH50" s="2">
         <v>0</v>
@@ -28435,23 +28432,23 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7">
-        <v>6</v>
-      </c>
-      <c r="G51" s="7">
-        <v>6</v>
-      </c>
-      <c r="H51" s="7">
-        <v>6</v>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -28468,17 +28465,17 @@
       <c r="M51" s="1">
         <v>1</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>1</v>
+      <c r="N51" s="3">
+        <v>2</v>
+      </c>
+      <c r="O51" s="3">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>2</v>
       </c>
       <c r="R51" s="1">
         <v>1</v>
@@ -28534,86 +28531,86 @@
       <c r="AI51" s="3">
         <v>2</v>
       </c>
-      <c r="AJ51" s="5">
+      <c r="AJ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA51" s="5">
         <v>4</v>
       </c>
-      <c r="AK51" s="5">
+      <c r="BB51" s="5">
         <v>4</v>
       </c>
-      <c r="AL51" s="5">
+      <c r="BC51" s="5">
         <v>4</v>
       </c>
-      <c r="AM51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AN51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AU51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AV51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AW51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AX51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AY51" s="5">
-        <v>4</v>
-      </c>
-      <c r="AZ51" s="3">
-        <v>2</v>
-      </c>
-      <c r="BA51" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB51" s="3">
-        <v>2</v>
-      </c>
-      <c r="BC51" s="3">
-        <v>2</v>
-      </c>
-      <c r="BD51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BE51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BF51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BG51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BH51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BI51" s="5">
-        <v>4</v>
-      </c>
-      <c r="BJ51" s="5">
-        <v>4</v>
+      <c r="BD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BI51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BJ51" s="3">
+        <v>2</v>
       </c>
       <c r="BK51" s="3">
         <v>2</v>
@@ -28627,179 +28624,179 @@
       <c r="BN51" s="3">
         <v>2</v>
       </c>
-      <c r="BO51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY51" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY51" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT51" s="1">
-        <v>1</v>
+      <c r="BO51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BQ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BS51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BU51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BV51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY51" s="3">
+        <v>2</v>
+      </c>
+      <c r="BZ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CN51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CO51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CS51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CT51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CU51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CV51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CY51" s="3">
+        <v>2</v>
+      </c>
+      <c r="CZ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DA51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DB51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DC51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DE51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DF51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DG51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DH51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DJ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DL51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DM51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DN51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DP51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DQ51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DS51" s="3">
+        <v>2</v>
+      </c>
+      <c r="DT51" s="3">
+        <v>2</v>
       </c>
       <c r="DU51" s="1">
         <v>1</v>
@@ -29032,7 +29029,7 @@
   <dimension ref="A1:GM24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7:AL8"/>
+      <selection sqref="A1:GM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29089,41 +29086,41 @@
       <c r="Q1" s="1">
         <v>1</v>
       </c>
-      <c r="R1" s="6">
-        <v>5</v>
-      </c>
-      <c r="S1" s="6">
-        <v>5</v>
-      </c>
-      <c r="T1" s="6">
-        <v>5</v>
-      </c>
-      <c r="U1" s="6">
-        <v>5</v>
-      </c>
-      <c r="V1" s="6">
-        <v>5</v>
-      </c>
-      <c r="W1" s="6">
-        <v>5</v>
-      </c>
-      <c r="X1" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="6">
-        <v>5</v>
+      <c r="R1" s="1">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1</v>
       </c>
       <c r="AD1" s="1">
         <v>1</v>
@@ -29386,14 +29383,14 @@
       <c r="DL1" s="1">
         <v>1</v>
       </c>
-      <c r="DM1" s="6">
-        <v>5</v>
-      </c>
-      <c r="DN1" s="6">
-        <v>5</v>
-      </c>
-      <c r="DO1" s="6">
-        <v>5</v>
+      <c r="DM1" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>1</v>
       </c>
       <c r="DP1" s="1">
         <v>1</v>
@@ -29775,8 +29772,8 @@
       <c r="AX2" s="2">
         <v>0</v>
       </c>
-      <c r="AY2" s="2">
-        <v>0</v>
+      <c r="AY2" s="1">
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -29787,8 +29784,8 @@
       <c r="BB2" s="2">
         <v>0</v>
       </c>
-      <c r="BC2" s="2">
-        <v>0</v>
+      <c r="BC2" s="1">
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>0</v>
@@ -29814,14 +29811,14 @@
       <c r="BK2" s="2">
         <v>0</v>
       </c>
-      <c r="BL2" s="2">
-        <v>0</v>
+      <c r="BL2" s="1">
+        <v>1</v>
       </c>
       <c r="BM2" s="2">
         <v>0</v>
       </c>
-      <c r="BN2" s="1">
-        <v>1</v>
+      <c r="BN2" s="2">
+        <v>0</v>
       </c>
       <c r="BO2" s="2">
         <v>0</v>
@@ -30362,8 +30359,8 @@
       <c r="AX3" s="2">
         <v>0</v>
       </c>
-      <c r="AY3" s="2">
-        <v>0</v>
+      <c r="AY3" s="1">
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -30374,8 +30371,8 @@
       <c r="BB3" s="2">
         <v>0</v>
       </c>
-      <c r="BC3" s="2">
-        <v>0</v>
+      <c r="BC3" s="1">
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>0</v>
@@ -30401,14 +30398,14 @@
       <c r="BK3" s="2">
         <v>0</v>
       </c>
-      <c r="BL3" s="2">
-        <v>0</v>
+      <c r="BL3" s="1">
+        <v>1</v>
       </c>
       <c r="BM3" s="2">
         <v>0</v>
       </c>
-      <c r="BN3" s="1">
-        <v>1</v>
+      <c r="BN3" s="2">
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
         <v>0</v>
@@ -30802,11 +30799,11 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -30847,8 +30844,8 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0</v>
+      <c r="Q4" s="1">
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -30949,8 +30946,8 @@
       <c r="AX4" s="2">
         <v>0</v>
       </c>
-      <c r="AY4" s="2">
-        <v>0</v>
+      <c r="AY4" s="1">
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -30961,8 +30958,8 @@
       <c r="BB4" s="2">
         <v>0</v>
       </c>
-      <c r="BC4" s="2">
-        <v>0</v>
+      <c r="BC4" s="1">
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>0</v>
@@ -30988,14 +30985,14 @@
       <c r="BK4" s="2">
         <v>0</v>
       </c>
-      <c r="BL4" s="2">
-        <v>0</v>
+      <c r="BL4" s="1">
+        <v>1</v>
       </c>
       <c r="BM4" s="2">
         <v>0</v>
       </c>
-      <c r="BN4" s="1">
-        <v>1</v>
+      <c r="BN4" s="2">
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -31389,11 +31386,11 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -31401,29 +31398,29 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -31434,8 +31431,8 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -31536,8 +31533,8 @@
       <c r="AX5" s="2">
         <v>0</v>
       </c>
-      <c r="AY5" s="2">
-        <v>0</v>
+      <c r="AY5" s="1">
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -31548,8 +31545,8 @@
       <c r="BB5" s="2">
         <v>0</v>
       </c>
-      <c r="BC5" s="2">
-        <v>0</v>
+      <c r="BC5" s="1">
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -31575,14 +31572,14 @@
       <c r="BK5" s="2">
         <v>0</v>
       </c>
-      <c r="BL5" s="2">
-        <v>0</v>
+      <c r="BL5" s="1">
+        <v>1</v>
       </c>
       <c r="BM5" s="2">
         <v>0</v>
       </c>
-      <c r="BN5" s="1">
-        <v>1</v>
+      <c r="BN5" s="2">
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
         <v>0</v>
@@ -31988,11 +31985,11 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -32009,8 +32006,8 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -32021,8 +32018,8 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
+      <c r="Q6" s="1">
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -32123,8 +32120,8 @@
       <c r="AX6" s="2">
         <v>0</v>
       </c>
-      <c r="AY6" s="2">
-        <v>0</v>
+      <c r="AY6" s="1">
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -32135,8 +32132,8 @@
       <c r="BB6" s="2">
         <v>0</v>
       </c>
-      <c r="BC6" s="2">
-        <v>0</v>
+      <c r="BC6" s="1">
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>0</v>
@@ -32162,14 +32159,14 @@
       <c r="BK6" s="2">
         <v>0</v>
       </c>
-      <c r="BL6" s="2">
-        <v>0</v>
+      <c r="BL6" s="1">
+        <v>1</v>
       </c>
       <c r="BM6" s="2">
         <v>0</v>
       </c>
-      <c r="BN6" s="1">
-        <v>1</v>
+      <c r="BN6" s="2">
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -32581,11 +32578,11 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -32596,8 +32593,8 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -32635,17 +32632,17 @@
       <c r="Y7" s="1">
         <v>1</v>
       </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>1</v>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -32710,8 +32707,8 @@
       <c r="AX7" s="2">
         <v>0</v>
       </c>
-      <c r="AY7" s="2">
-        <v>0</v>
+      <c r="AY7" s="1">
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -32722,8 +32719,8 @@
       <c r="BB7" s="2">
         <v>0</v>
       </c>
-      <c r="BC7" s="2">
-        <v>0</v>
+      <c r="BC7" s="1">
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>0</v>
@@ -32749,14 +32746,14 @@
       <c r="BK7" s="2">
         <v>0</v>
       </c>
-      <c r="BL7" s="2">
-        <v>0</v>
+      <c r="BL7" s="1">
+        <v>1</v>
       </c>
       <c r="BM7" s="2">
         <v>0</v>
       </c>
-      <c r="BN7" s="1">
-        <v>1</v>
+      <c r="BN7" s="2">
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -33174,11 +33171,11 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -33219,8 +33216,8 @@
       <c r="X8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <v>0</v>
+      <c r="Y8" s="1">
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -33231,8 +33228,8 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
-        <v>1</v>
+      <c r="AC8" s="2">
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -33297,8 +33294,8 @@
       <c r="AX8" s="2">
         <v>0</v>
       </c>
-      <c r="AY8" s="2">
-        <v>0</v>
+      <c r="AY8" s="1">
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -33309,8 +33306,8 @@
       <c r="BB8" s="2">
         <v>0</v>
       </c>
-      <c r="BC8" s="2">
-        <v>0</v>
+      <c r="BC8" s="1">
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>0</v>
@@ -33336,14 +33333,14 @@
       <c r="BK8" s="2">
         <v>0</v>
       </c>
-      <c r="BL8" s="2">
-        <v>0</v>
+      <c r="BL8" s="1">
+        <v>1</v>
       </c>
       <c r="BM8" s="2">
         <v>0</v>
       </c>
-      <c r="BN8" s="1">
-        <v>1</v>
+      <c r="BN8" s="2">
+        <v>0</v>
       </c>
       <c r="BO8" s="2">
         <v>0</v>
@@ -33767,11 +33764,11 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -33797,8 +33794,8 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="1">
-        <v>1</v>
+      <c r="V9" s="2">
+        <v>0</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -33806,8 +33803,8 @@
       <c r="X9" s="2">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0</v>
+      <c r="Y9" s="1">
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -33818,8 +33815,8 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="1">
-        <v>1</v>
+      <c r="AC9" s="2">
+        <v>0</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -33884,8 +33881,8 @@
       <c r="AX9" s="2">
         <v>0</v>
       </c>
-      <c r="AY9" s="2">
-        <v>0</v>
+      <c r="AY9" s="1">
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -33896,8 +33893,8 @@
       <c r="BB9" s="2">
         <v>0</v>
       </c>
-      <c r="BC9" s="2">
-        <v>0</v>
+      <c r="BC9" s="1">
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>0</v>
@@ -33923,14 +33920,14 @@
       <c r="BK9" s="2">
         <v>0</v>
       </c>
-      <c r="BL9" s="2">
-        <v>0</v>
+      <c r="BL9" s="1">
+        <v>1</v>
       </c>
       <c r="BM9" s="2">
         <v>0</v>
       </c>
-      <c r="BN9" s="1">
-        <v>1</v>
+      <c r="BN9" s="2">
+        <v>0</v>
       </c>
       <c r="BO9" s="2">
         <v>0</v>
@@ -34360,11 +34357,11 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -34393,8 +34390,8 @@
       <c r="X10" s="2">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
+      <c r="Y10" s="1">
+        <v>1</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -34405,8 +34402,8 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="1">
-        <v>1</v>
+      <c r="AC10" s="2">
+        <v>0</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -34471,8 +34468,8 @@
       <c r="AX10" s="2">
         <v>0</v>
       </c>
-      <c r="AY10" s="2">
-        <v>0</v>
+      <c r="AY10" s="1">
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -34483,8 +34480,8 @@
       <c r="BB10" s="2">
         <v>0</v>
       </c>
-      <c r="BC10" s="2">
-        <v>0</v>
+      <c r="BC10" s="1">
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -34510,8 +34507,8 @@
       <c r="BK10" s="2">
         <v>0</v>
       </c>
-      <c r="BL10" s="2">
-        <v>0</v>
+      <c r="BL10" s="1">
+        <v>1</v>
       </c>
       <c r="BM10" s="2">
         <v>0</v>
@@ -34911,38 +34908,38 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -34980,11 +34977,11 @@
       <c r="X11" s="2">
         <v>0</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -34992,8 +34989,8 @@
       <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="1">
-        <v>1</v>
+      <c r="AC11" s="2">
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -35058,8 +35055,8 @@
       <c r="AX11" s="2">
         <v>0</v>
       </c>
-      <c r="AY11" s="2">
-        <v>0</v>
+      <c r="AY11" s="1">
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -35070,8 +35067,8 @@
       <c r="BB11" s="2">
         <v>0</v>
       </c>
-      <c r="BC11" s="2">
-        <v>0</v>
+      <c r="BC11" s="1">
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>0</v>
@@ -35097,8 +35094,8 @@
       <c r="BK11" s="2">
         <v>0</v>
       </c>
-      <c r="BL11" s="2">
-        <v>0</v>
+      <c r="BL11" s="1">
+        <v>1</v>
       </c>
       <c r="BM11" s="2">
         <v>0</v>
@@ -35507,8 +35504,8 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -35528,8 +35525,8 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
+      <c r="L12" s="1">
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -35561,14 +35558,14 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <v>1</v>
+      <c r="W12" s="2">
+        <v>0</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
+      <c r="Y12" s="1">
+        <v>1</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
@@ -35579,8 +35576,8 @@
       <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
-        <v>1</v>
+      <c r="AC12" s="2">
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -35645,8 +35642,8 @@
       <c r="AX12" s="2">
         <v>0</v>
       </c>
-      <c r="AY12" s="2">
-        <v>0</v>
+      <c r="AY12" s="1">
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -35657,8 +35654,8 @@
       <c r="BB12" s="2">
         <v>0</v>
       </c>
-      <c r="BC12" s="2">
-        <v>0</v>
+      <c r="BC12" s="1">
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -35684,8 +35681,8 @@
       <c r="BK12" s="2">
         <v>0</v>
       </c>
-      <c r="BL12" s="2">
-        <v>0</v>
+      <c r="BL12" s="1">
+        <v>1</v>
       </c>
       <c r="BM12" s="2">
         <v>0</v>
@@ -36094,8 +36091,8 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -36115,8 +36112,8 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13" s="1">
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -36154,8 +36151,8 @@
       <c r="X13" s="2">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
+      <c r="Y13" s="1">
+        <v>1</v>
       </c>
       <c r="Z13" s="2">
         <v>0</v>
@@ -36166,8 +36163,8 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
-        <v>1</v>
+      <c r="AC13" s="2">
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -36232,8 +36229,8 @@
       <c r="AX13" s="2">
         <v>0</v>
       </c>
-      <c r="AY13" s="2">
-        <v>0</v>
+      <c r="AY13" s="1">
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -36244,8 +36241,8 @@
       <c r="BB13" s="2">
         <v>0</v>
       </c>
-      <c r="BC13" s="2">
-        <v>0</v>
+      <c r="BC13" s="1">
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -36271,8 +36268,8 @@
       <c r="BK13" s="2">
         <v>0</v>
       </c>
-      <c r="BL13" s="2">
-        <v>0</v>
+      <c r="BL13" s="1">
+        <v>1</v>
       </c>
       <c r="BM13" s="2">
         <v>0</v>
@@ -36681,8 +36678,8 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
+      <c r="E14" s="1">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -36702,8 +36699,8 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
+      <c r="L14" s="1">
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -36741,8 +36738,8 @@
       <c r="X14" s="1">
         <v>1</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
+      <c r="Y14" s="1">
+        <v>1</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -36753,8 +36750,8 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="1">
-        <v>1</v>
+      <c r="AC14" s="2">
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -36819,8 +36816,8 @@
       <c r="AX14" s="2">
         <v>0</v>
       </c>
-      <c r="AY14" s="2">
-        <v>0</v>
+      <c r="AY14" s="1">
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -36831,8 +36828,8 @@
       <c r="BB14" s="2">
         <v>0</v>
       </c>
-      <c r="BC14" s="2">
-        <v>0</v>
+      <c r="BC14" s="1">
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -36858,8 +36855,8 @@
       <c r="BK14" s="2">
         <v>0</v>
       </c>
-      <c r="BL14" s="2">
-        <v>0</v>
+      <c r="BL14" s="1">
+        <v>1</v>
       </c>
       <c r="BM14" s="2">
         <v>0</v>
@@ -37268,8 +37265,8 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -37289,8 +37286,8 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
+      <c r="L15" s="1">
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -37328,8 +37325,8 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
+      <c r="Y15" s="1">
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -37340,8 +37337,8 @@
       <c r="AB15" s="2">
         <v>0</v>
       </c>
-      <c r="AC15" s="1">
-        <v>1</v>
+      <c r="AC15" s="2">
+        <v>0</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -37406,8 +37403,8 @@
       <c r="AX15" s="2">
         <v>0</v>
       </c>
-      <c r="AY15" s="2">
-        <v>0</v>
+      <c r="AY15" s="1">
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -37418,8 +37415,8 @@
       <c r="BB15" s="2">
         <v>0</v>
       </c>
-      <c r="BC15" s="2">
-        <v>0</v>
+      <c r="BC15" s="1">
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -37445,8 +37442,8 @@
       <c r="BK15" s="2">
         <v>0</v>
       </c>
-      <c r="BL15" s="2">
-        <v>0</v>
+      <c r="BL15" s="1">
+        <v>1</v>
       </c>
       <c r="BM15" s="2">
         <v>0</v>
@@ -37855,8 +37852,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -37876,8 +37873,8 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
+      <c r="L16" s="1">
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -37915,8 +37912,8 @@
       <c r="X16" s="2">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0</v>
+      <c r="Y16" s="1">
+        <v>1</v>
       </c>
       <c r="Z16" s="2">
         <v>0</v>
@@ -37927,8 +37924,8 @@
       <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="1">
-        <v>1</v>
+      <c r="AC16" s="2">
+        <v>0</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -37993,8 +37990,8 @@
       <c r="AX16" s="2">
         <v>0</v>
       </c>
-      <c r="AY16" s="2">
-        <v>0</v>
+      <c r="AY16" s="1">
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -38005,8 +38002,8 @@
       <c r="BB16" s="2">
         <v>0</v>
       </c>
-      <c r="BC16" s="2">
-        <v>0</v>
+      <c r="BC16" s="1">
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -38032,8 +38029,8 @@
       <c r="BK16" s="2">
         <v>0</v>
       </c>
-      <c r="BL16" s="2">
-        <v>0</v>
+      <c r="BL16" s="1">
+        <v>1</v>
       </c>
       <c r="BM16" s="2">
         <v>0</v>
@@ -38236,11 +38233,11 @@
       <c r="EA16" s="1">
         <v>1</v>
       </c>
-      <c r="EB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="EC16" s="2">
-        <v>0</v>
+      <c r="EB16" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC16" s="1">
+        <v>1</v>
       </c>
       <c r="ED16" s="1">
         <v>1</v>
@@ -38442,8 +38439,8 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -38463,8 +38460,8 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
+      <c r="L17" s="1">
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -38502,8 +38499,8 @@
       <c r="X17" s="2">
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0</v>
+      <c r="Y17" s="1">
+        <v>1</v>
       </c>
       <c r="Z17" s="2">
         <v>0</v>
@@ -38514,8 +38511,8 @@
       <c r="AB17" s="2">
         <v>0</v>
       </c>
-      <c r="AC17" s="1">
-        <v>1</v>
+      <c r="AC17" s="2">
+        <v>0</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -38580,8 +38577,8 @@
       <c r="AX17" s="2">
         <v>0</v>
       </c>
-      <c r="AY17" s="2">
-        <v>0</v>
+      <c r="AY17" s="1">
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -38592,8 +38589,8 @@
       <c r="BB17" s="2">
         <v>0</v>
       </c>
-      <c r="BC17" s="2">
-        <v>0</v>
+      <c r="BC17" s="1">
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -38619,8 +38616,8 @@
       <c r="BK17" s="2">
         <v>0</v>
       </c>
-      <c r="BL17" s="2">
-        <v>0</v>
+      <c r="BL17" s="1">
+        <v>1</v>
       </c>
       <c r="BM17" s="2">
         <v>0</v>
@@ -39029,8 +39026,8 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -39050,8 +39047,8 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -39089,86 +39086,86 @@
       <c r="X18" s="2">
         <v>0</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0</v>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
       </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>0</v>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -39179,35 +39176,35 @@
       <c r="BB18" s="2">
         <v>0</v>
       </c>
-      <c r="BC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="2">
-        <v>0</v>
+      <c r="BC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>1</v>
       </c>
       <c r="BM18" s="2">
         <v>0</v>
@@ -39616,8 +39613,8 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
+      <c r="E19" s="1">
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -39637,8 +39634,8 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
+      <c r="L19" s="1">
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -39676,8 +39673,8 @@
       <c r="X19" s="2">
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
-        <v>1</v>
+      <c r="Y19" s="2">
+        <v>0</v>
       </c>
       <c r="Z19" s="2">
         <v>0</v>
@@ -39688,8 +39685,8 @@
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AC19" s="1">
-        <v>1</v>
+      <c r="AC19" s="2">
+        <v>0</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -40203,8 +40200,8 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
+      <c r="E20" s="1">
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -40224,8 +40221,8 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
+      <c r="L20" s="1">
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -40790,8 +40787,8 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
+      <c r="E21" s="1">
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -40811,8 +40808,8 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -41377,8 +41374,8 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
+      <c r="E22" s="1">
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -41398,8 +41395,8 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
-        <v>0</v>
+      <c r="L22" s="1">
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -41437,8 +41434,8 @@
       <c r="X22" s="2">
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
-        <v>1</v>
+      <c r="Y22" s="2">
+        <v>0</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -41452,11 +41449,11 @@
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1</v>
       </c>
       <c r="AF22" s="2">
         <v>0</v>
@@ -41473,17 +41470,17 @@
       <c r="AJ22" s="2">
         <v>0</v>
       </c>
-      <c r="AK22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>1</v>
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>1</v>
       </c>
-      <c r="AN22" s="2">
-        <v>0</v>
+      <c r="AN22" s="1">
+        <v>1</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -41503,8 +41500,8 @@
       <c r="AT22" s="2">
         <v>0</v>
       </c>
-      <c r="AU22" s="1">
-        <v>1</v>
+      <c r="AU22" s="2">
+        <v>0</v>
       </c>
       <c r="AV22" s="1">
         <v>1</v>
@@ -41539,8 +41536,8 @@
       <c r="BF22" s="1">
         <v>1</v>
       </c>
-      <c r="BG22" s="1">
-        <v>1</v>
+      <c r="BG22" s="2">
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -41964,8 +41961,8 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
+      <c r="E23" s="1">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -41985,8 +41982,8 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
-        <v>0</v>
+      <c r="L23" s="1">
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -42201,8 +42198,8 @@
       <c r="CE23" s="2">
         <v>0</v>
       </c>
-      <c r="CF23" s="1">
-        <v>1</v>
+      <c r="CF23" s="2">
+        <v>0</v>
       </c>
       <c r="CG23" s="2">
         <v>0</v>
@@ -42542,14 +42539,14 @@
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -42575,17 +42572,17 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>
@@ -42656,23 +42653,23 @@
       <c r="AM24" s="3">
         <v>2</v>
       </c>
-      <c r="AN24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AR24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AS24" s="5">
-        <v>4</v>
+      <c r="AN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>2</v>
       </c>
       <c r="AT24" s="3">
         <v>2</v>
@@ -42686,26 +42683,26 @@
       <c r="AW24" s="3">
         <v>2</v>
       </c>
-      <c r="AX24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AY24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AZ24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BA24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BB24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BC24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BD24" s="5">
-        <v>4</v>
+      <c r="AX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>2</v>
       </c>
       <c r="BE24" s="3">
         <v>2</v>
@@ -42734,179 +42731,179 @@
       <c r="BM24" s="3">
         <v>2</v>
       </c>
-      <c r="BN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS24" s="1">
-        <v>1</v>
+      <c r="BN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BU24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BV24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BZ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CD24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CS24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CT24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CU24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CV24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CZ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DA24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DB24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DG24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DH24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DJ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DL24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DS24" s="3">
+        <v>2</v>
       </c>
       <c r="DT24" s="1">
         <v>1</v>
@@ -43134,8 +43131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A6B0F1-D785-4E06-8EF6-496E76AFF618}">
   <dimension ref="A1:GM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7:BB7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:GM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43192,41 +43189,41 @@
       <c r="Q1" s="1">
         <v>1</v>
       </c>
-      <c r="R1" s="6">
-        <v>5</v>
-      </c>
-      <c r="S1" s="6">
-        <v>5</v>
-      </c>
-      <c r="T1" s="6">
-        <v>5</v>
-      </c>
-      <c r="U1" s="6">
-        <v>5</v>
-      </c>
-      <c r="V1" s="6">
-        <v>5</v>
-      </c>
-      <c r="W1" s="6">
-        <v>5</v>
-      </c>
-      <c r="X1" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="6">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="6">
-        <v>5</v>
+      <c r="R1" s="1">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1</v>
       </c>
       <c r="AD1" s="1">
         <v>1</v>
@@ -43878,8 +43875,8 @@
       <c r="AX2" s="2">
         <v>0</v>
       </c>
-      <c r="AY2" s="2">
-        <v>0</v>
+      <c r="AY2" s="1">
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -43890,8 +43887,8 @@
       <c r="BB2" s="2">
         <v>0</v>
       </c>
-      <c r="BC2" s="2">
-        <v>0</v>
+      <c r="BC2" s="1">
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>0</v>
@@ -43917,14 +43914,14 @@
       <c r="BK2" s="2">
         <v>0</v>
       </c>
-      <c r="BL2" s="2">
-        <v>0</v>
+      <c r="BL2" s="1">
+        <v>1</v>
       </c>
       <c r="BM2" s="2">
         <v>0</v>
       </c>
-      <c r="BN2" s="1">
-        <v>1</v>
+      <c r="BN2" s="2">
+        <v>0</v>
       </c>
       <c r="BO2" s="2">
         <v>0</v>
@@ -44465,8 +44462,8 @@
       <c r="AX3" s="2">
         <v>0</v>
       </c>
-      <c r="AY3" s="2">
-        <v>0</v>
+      <c r="AY3" s="1">
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -44477,8 +44474,8 @@
       <c r="BB3" s="2">
         <v>0</v>
       </c>
-      <c r="BC3" s="2">
-        <v>0</v>
+      <c r="BC3" s="1">
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>0</v>
@@ -44504,14 +44501,14 @@
       <c r="BK3" s="2">
         <v>0</v>
       </c>
-      <c r="BL3" s="2">
-        <v>0</v>
+      <c r="BL3" s="1">
+        <v>1</v>
       </c>
       <c r="BM3" s="2">
         <v>0</v>
       </c>
-      <c r="BN3" s="1">
-        <v>1</v>
+      <c r="BN3" s="2">
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
         <v>0</v>
@@ -44950,8 +44947,8 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0</v>
+      <c r="Q4" s="1">
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -45052,8 +45049,8 @@
       <c r="AX4" s="2">
         <v>0</v>
       </c>
-      <c r="AY4" s="2">
-        <v>0</v>
+      <c r="AY4" s="1">
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -45064,8 +45061,8 @@
       <c r="BB4" s="2">
         <v>0</v>
       </c>
-      <c r="BC4" s="2">
-        <v>0</v>
+      <c r="BC4" s="1">
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>0</v>
@@ -45091,14 +45088,14 @@
       <c r="BK4" s="2">
         <v>0</v>
       </c>
-      <c r="BL4" s="2">
-        <v>0</v>
+      <c r="BL4" s="1">
+        <v>1</v>
       </c>
       <c r="BM4" s="2">
         <v>0</v>
       </c>
-      <c r="BN4" s="1">
-        <v>1</v>
+      <c r="BN4" s="2">
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -45492,11 +45489,11 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -45504,29 +45501,29 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -45537,8 +45534,8 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -45639,8 +45636,8 @@
       <c r="AX5" s="2">
         <v>0</v>
       </c>
-      <c r="AY5" s="2">
-        <v>0</v>
+      <c r="AY5" s="1">
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -45651,8 +45648,8 @@
       <c r="BB5" s="2">
         <v>0</v>
       </c>
-      <c r="BC5" s="2">
-        <v>0</v>
+      <c r="BC5" s="1">
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -45678,14 +45675,14 @@
       <c r="BK5" s="2">
         <v>0</v>
       </c>
-      <c r="BL5" s="2">
-        <v>0</v>
+      <c r="BL5" s="1">
+        <v>1</v>
       </c>
       <c r="BM5" s="2">
         <v>0</v>
       </c>
-      <c r="BN5" s="1">
-        <v>1</v>
+      <c r="BN5" s="2">
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
         <v>0</v>
@@ -46091,11 +46088,11 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -46112,8 +46109,8 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -46124,8 +46121,8 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
+      <c r="Q6" s="1">
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -46226,8 +46223,8 @@
       <c r="AX6" s="2">
         <v>0</v>
       </c>
-      <c r="AY6" s="2">
-        <v>0</v>
+      <c r="AY6" s="1">
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -46238,8 +46235,8 @@
       <c r="BB6" s="2">
         <v>0</v>
       </c>
-      <c r="BC6" s="2">
-        <v>0</v>
+      <c r="BC6" s="1">
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>0</v>
@@ -46265,14 +46262,14 @@
       <c r="BK6" s="2">
         <v>0</v>
       </c>
-      <c r="BL6" s="2">
-        <v>0</v>
+      <c r="BL6" s="1">
+        <v>1</v>
       </c>
       <c r="BM6" s="2">
         <v>0</v>
       </c>
-      <c r="BN6" s="1">
-        <v>1</v>
+      <c r="BN6" s="2">
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -46684,11 +46681,11 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -46699,8 +46696,8 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -46738,17 +46735,17 @@
       <c r="Y7" s="1">
         <v>1</v>
       </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>1</v>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -46813,8 +46810,8 @@
       <c r="AX7" s="2">
         <v>0</v>
       </c>
-      <c r="AY7" s="2">
-        <v>0</v>
+      <c r="AY7" s="1">
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -46825,8 +46822,8 @@
       <c r="BB7" s="2">
         <v>0</v>
       </c>
-      <c r="BC7" s="2">
-        <v>0</v>
+      <c r="BC7" s="1">
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>0</v>
@@ -46852,14 +46849,14 @@
       <c r="BK7" s="2">
         <v>0</v>
       </c>
-      <c r="BL7" s="2">
-        <v>0</v>
+      <c r="BL7" s="1">
+        <v>1</v>
       </c>
       <c r="BM7" s="2">
         <v>0</v>
       </c>
-      <c r="BN7" s="1">
-        <v>1</v>
+      <c r="BN7" s="2">
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -47277,11 +47274,11 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -47322,8 +47319,8 @@
       <c r="X8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <v>0</v>
+      <c r="Y8" s="1">
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -47334,8 +47331,8 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
-        <v>1</v>
+      <c r="AC8" s="2">
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -47400,8 +47397,8 @@
       <c r="AX8" s="2">
         <v>0</v>
       </c>
-      <c r="AY8" s="2">
-        <v>0</v>
+      <c r="AY8" s="1">
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -47412,8 +47409,8 @@
       <c r="BB8" s="2">
         <v>0</v>
       </c>
-      <c r="BC8" s="2">
-        <v>0</v>
+      <c r="BC8" s="1">
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>0</v>
@@ -47439,14 +47436,14 @@
       <c r="BK8" s="2">
         <v>0</v>
       </c>
-      <c r="BL8" s="2">
-        <v>0</v>
+      <c r="BL8" s="1">
+        <v>1</v>
       </c>
       <c r="BM8" s="2">
         <v>0</v>
       </c>
-      <c r="BN8" s="1">
-        <v>1</v>
+      <c r="BN8" s="2">
+        <v>0</v>
       </c>
       <c r="BO8" s="2">
         <v>0</v>
@@ -47870,11 +47867,11 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -47906,11 +47903,11 @@
       <c r="W9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -47921,8 +47918,8 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="1">
-        <v>1</v>
+      <c r="AC9" s="2">
+        <v>0</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -47987,8 +47984,8 @@
       <c r="AX9" s="2">
         <v>0</v>
       </c>
-      <c r="AY9" s="2">
-        <v>0</v>
+      <c r="AY9" s="1">
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -47999,8 +47996,8 @@
       <c r="BB9" s="2">
         <v>0</v>
       </c>
-      <c r="BC9" s="2">
-        <v>0</v>
+      <c r="BC9" s="1">
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>0</v>
@@ -48026,14 +48023,14 @@
       <c r="BK9" s="2">
         <v>0</v>
       </c>
-      <c r="BL9" s="2">
-        <v>0</v>
+      <c r="BL9" s="1">
+        <v>1</v>
       </c>
       <c r="BM9" s="2">
         <v>0</v>
       </c>
-      <c r="BN9" s="1">
-        <v>1</v>
+      <c r="BN9" s="2">
+        <v>0</v>
       </c>
       <c r="BO9" s="2">
         <v>0</v>
@@ -48463,11 +48460,11 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -48496,8 +48493,8 @@
       <c r="X10" s="2">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
+      <c r="Y10" s="1">
+        <v>1</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -48508,8 +48505,8 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="1">
-        <v>1</v>
+      <c r="AC10" s="2">
+        <v>0</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -48574,8 +48571,8 @@
       <c r="AX10" s="2">
         <v>0</v>
       </c>
-      <c r="AY10" s="2">
-        <v>0</v>
+      <c r="AY10" s="1">
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -48586,8 +48583,8 @@
       <c r="BB10" s="2">
         <v>0</v>
       </c>
-      <c r="BC10" s="2">
-        <v>0</v>
+      <c r="BC10" s="1">
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -48613,8 +48610,8 @@
       <c r="BK10" s="2">
         <v>0</v>
       </c>
-      <c r="BL10" s="2">
-        <v>0</v>
+      <c r="BL10" s="1">
+        <v>1</v>
       </c>
       <c r="BM10" s="2">
         <v>0</v>
@@ -49023,29 +49020,29 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -49053,11 +49050,11 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -49083,20 +49080,20 @@
       <c r="X11" s="2">
         <v>0</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
+      <c r="Y11" s="1">
+        <v>1</v>
       </c>
       <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="AA11" s="1">
-        <v>1</v>
+      <c r="AA11" s="2">
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="1">
-        <v>1</v>
+      <c r="AC11" s="2">
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -49161,8 +49158,8 @@
       <c r="AX11" s="2">
         <v>0</v>
       </c>
-      <c r="AY11" s="2">
-        <v>0</v>
+      <c r="AY11" s="1">
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -49173,8 +49170,8 @@
       <c r="BB11" s="2">
         <v>0</v>
       </c>
-      <c r="BC11" s="2">
-        <v>0</v>
+      <c r="BC11" s="1">
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>0</v>
@@ -49200,8 +49197,8 @@
       <c r="BK11" s="2">
         <v>0</v>
       </c>
-      <c r="BL11" s="2">
-        <v>0</v>
+      <c r="BL11" s="1">
+        <v>1</v>
       </c>
       <c r="BM11" s="2">
         <v>0</v>
@@ -49610,8 +49607,8 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -49631,8 +49628,8 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
+      <c r="L12" s="1">
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -49670,8 +49667,8 @@
       <c r="X12" s="2">
         <v>0</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
+      <c r="Y12" s="1">
+        <v>1</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
@@ -49682,8 +49679,8 @@
       <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
-        <v>1</v>
+      <c r="AC12" s="2">
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -49748,8 +49745,8 @@
       <c r="AX12" s="2">
         <v>0</v>
       </c>
-      <c r="AY12" s="2">
-        <v>0</v>
+      <c r="AY12" s="1">
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -49760,8 +49757,8 @@
       <c r="BB12" s="2">
         <v>0</v>
       </c>
-      <c r="BC12" s="2">
-        <v>0</v>
+      <c r="BC12" s="1">
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -49787,8 +49784,8 @@
       <c r="BK12" s="2">
         <v>0</v>
       </c>
-      <c r="BL12" s="2">
-        <v>0</v>
+      <c r="BL12" s="1">
+        <v>1</v>
       </c>
       <c r="BM12" s="2">
         <v>0</v>
@@ -50197,8 +50194,8 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -50218,8 +50215,8 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13" s="1">
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -50257,8 +50254,8 @@
       <c r="X13" s="2">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
+      <c r="Y13" s="1">
+        <v>1</v>
       </c>
       <c r="Z13" s="2">
         <v>0</v>
@@ -50269,8 +50266,8 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
-        <v>1</v>
+      <c r="AC13" s="2">
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -50335,8 +50332,8 @@
       <c r="AX13" s="2">
         <v>0</v>
       </c>
-      <c r="AY13" s="2">
-        <v>0</v>
+      <c r="AY13" s="1">
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -50347,8 +50344,8 @@
       <c r="BB13" s="2">
         <v>0</v>
       </c>
-      <c r="BC13" s="2">
-        <v>0</v>
+      <c r="BC13" s="1">
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -50374,8 +50371,8 @@
       <c r="BK13" s="2">
         <v>0</v>
       </c>
-      <c r="BL13" s="2">
-        <v>0</v>
+      <c r="BL13" s="1">
+        <v>1</v>
       </c>
       <c r="BM13" s="2">
         <v>0</v>
@@ -50784,8 +50781,8 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
+      <c r="E14" s="1">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -50805,8 +50802,8 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
+      <c r="L14" s="1">
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -50844,8 +50841,8 @@
       <c r="X14" s="1">
         <v>1</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
+      <c r="Y14" s="1">
+        <v>1</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -50856,8 +50853,8 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="1">
-        <v>1</v>
+      <c r="AC14" s="2">
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -50922,8 +50919,8 @@
       <c r="AX14" s="2">
         <v>0</v>
       </c>
-      <c r="AY14" s="2">
-        <v>0</v>
+      <c r="AY14" s="1">
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -50934,8 +50931,8 @@
       <c r="BB14" s="2">
         <v>0</v>
       </c>
-      <c r="BC14" s="2">
-        <v>0</v>
+      <c r="BC14" s="1">
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -50961,8 +50958,8 @@
       <c r="BK14" s="2">
         <v>0</v>
       </c>
-      <c r="BL14" s="2">
-        <v>0</v>
+      <c r="BL14" s="1">
+        <v>1</v>
       </c>
       <c r="BM14" s="2">
         <v>0</v>
@@ -51371,8 +51368,8 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -51392,8 +51389,8 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
+      <c r="L15" s="1">
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -51431,8 +51428,8 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
+      <c r="Y15" s="1">
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -51443,8 +51440,8 @@
       <c r="AB15" s="2">
         <v>0</v>
       </c>
-      <c r="AC15" s="1">
-        <v>1</v>
+      <c r="AC15" s="2">
+        <v>0</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -51509,8 +51506,8 @@
       <c r="AX15" s="2">
         <v>0</v>
       </c>
-      <c r="AY15" s="2">
-        <v>0</v>
+      <c r="AY15" s="1">
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -51521,8 +51518,8 @@
       <c r="BB15" s="2">
         <v>0</v>
       </c>
-      <c r="BC15" s="2">
-        <v>0</v>
+      <c r="BC15" s="1">
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -51548,8 +51545,8 @@
       <c r="BK15" s="2">
         <v>0</v>
       </c>
-      <c r="BL15" s="2">
-        <v>0</v>
+      <c r="BL15" s="1">
+        <v>1</v>
       </c>
       <c r="BM15" s="2">
         <v>0</v>
@@ -51958,8 +51955,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -51979,8 +51976,8 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
+      <c r="L16" s="1">
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -52018,8 +52015,8 @@
       <c r="X16" s="2">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0</v>
+      <c r="Y16" s="1">
+        <v>1</v>
       </c>
       <c r="Z16" s="2">
         <v>0</v>
@@ -52030,8 +52027,8 @@
       <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="1">
-        <v>1</v>
+      <c r="AC16" s="2">
+        <v>0</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -52096,8 +52093,8 @@
       <c r="AX16" s="2">
         <v>0</v>
       </c>
-      <c r="AY16" s="2">
-        <v>0</v>
+      <c r="AY16" s="1">
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -52108,8 +52105,8 @@
       <c r="BB16" s="2">
         <v>0</v>
       </c>
-      <c r="BC16" s="2">
-        <v>0</v>
+      <c r="BC16" s="1">
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -52135,8 +52132,8 @@
       <c r="BK16" s="2">
         <v>0</v>
       </c>
-      <c r="BL16" s="2">
-        <v>0</v>
+      <c r="BL16" s="1">
+        <v>1</v>
       </c>
       <c r="BM16" s="2">
         <v>0</v>
@@ -52545,8 +52542,8 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -52566,8 +52563,8 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
+      <c r="L17" s="1">
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -52605,11 +52602,11 @@
       <c r="X17" s="2">
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1</v>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
       </c>
       <c r="AA17" s="2">
         <v>0</v>
@@ -52617,8 +52614,8 @@
       <c r="AB17" s="2">
         <v>0</v>
       </c>
-      <c r="AC17" s="1">
-        <v>1</v>
+      <c r="AC17" s="2">
+        <v>0</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -52683,8 +52680,8 @@
       <c r="AX17" s="2">
         <v>0</v>
       </c>
-      <c r="AY17" s="2">
-        <v>0</v>
+      <c r="AY17" s="1">
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -52695,8 +52692,8 @@
       <c r="BB17" s="2">
         <v>0</v>
       </c>
-      <c r="BC17" s="2">
-        <v>0</v>
+      <c r="BC17" s="1">
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -52722,8 +52719,8 @@
       <c r="BK17" s="2">
         <v>0</v>
       </c>
-      <c r="BL17" s="2">
-        <v>0</v>
+      <c r="BL17" s="1">
+        <v>1</v>
       </c>
       <c r="BM17" s="2">
         <v>0</v>
@@ -53132,8 +53129,8 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -53153,8 +53150,8 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -53192,86 +53189,86 @@
       <c r="X18" s="2">
         <v>0</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0</v>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
       </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>0</v>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -53282,35 +53279,35 @@
       <c r="BB18" s="2">
         <v>0</v>
       </c>
-      <c r="BC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="2">
-        <v>0</v>
+      <c r="BC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>1</v>
       </c>
       <c r="BM18" s="2">
         <v>0</v>
@@ -53719,8 +53716,8 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
+      <c r="E19" s="1">
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -53740,8 +53737,8 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
+      <c r="L19" s="1">
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -53791,8 +53788,8 @@
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AC19" s="1">
-        <v>1</v>
+      <c r="AC19" s="2">
+        <v>0</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -54306,8 +54303,8 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
+      <c r="E20" s="1">
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -54327,8 +54324,8 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
+      <c r="L20" s="1">
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -54893,8 +54890,8 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
+      <c r="E21" s="1">
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -54914,8 +54911,8 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -55480,8 +55477,8 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
+      <c r="E22" s="1">
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -55501,8 +55498,8 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
-        <v>0</v>
+      <c r="L22" s="1">
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -55546,8 +55543,8 @@
       <c r="Z22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="1">
-        <v>1</v>
+      <c r="AA22" s="2">
+        <v>0</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
@@ -55561,20 +55558,20 @@
       <c r="AE22" s="2">
         <v>0</v>
       </c>
-      <c r="AF22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>1</v>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
         <v>1</v>
       </c>
-      <c r="AI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>0</v>
+      <c r="AI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
@@ -55591,8 +55588,8 @@
       <c r="AO22" s="2">
         <v>0</v>
       </c>
-      <c r="AP22" s="1">
-        <v>1</v>
+      <c r="AP22" s="2">
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>1</v>
@@ -55600,8 +55597,8 @@
       <c r="AR22" s="1">
         <v>1</v>
       </c>
-      <c r="AS22" s="2">
-        <v>0</v>
+      <c r="AS22" s="1">
+        <v>1</v>
       </c>
       <c r="AT22" s="2">
         <v>0</v>
@@ -55621,14 +55618,14 @@
       <c r="AY22" s="2">
         <v>0</v>
       </c>
-      <c r="AZ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>1</v>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -55636,11 +55633,11 @@
       <c r="BD22" s="2">
         <v>0</v>
       </c>
-      <c r="BE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>0</v>
+      <c r="BE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -55651,26 +55648,26 @@
       <c r="BI22" s="2">
         <v>0</v>
       </c>
-      <c r="BJ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>1</v>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>0</v>
       </c>
       <c r="BQ22" s="1">
         <v>1</v>
@@ -56067,8 +56064,8 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
+      <c r="E23" s="1">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -56088,8 +56085,8 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
-        <v>0</v>
+      <c r="L23" s="1">
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -56250,8 +56247,8 @@
       <c r="BM23" s="2">
         <v>0</v>
       </c>
-      <c r="BN23" s="1">
-        <v>1</v>
+      <c r="BN23" s="2">
+        <v>0</v>
       </c>
       <c r="BO23" s="2">
         <v>0</v>
@@ -56304,8 +56301,8 @@
       <c r="CE23" s="2">
         <v>0</v>
       </c>
-      <c r="CF23" s="1">
-        <v>1</v>
+      <c r="CF23" s="2">
+        <v>0</v>
       </c>
       <c r="CG23" s="2">
         <v>0</v>
@@ -56645,23 +56642,23 @@
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>6</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="7">
-        <v>6</v>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -56678,17 +56675,17 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>
@@ -56744,86 +56741,86 @@
       <c r="AH24" s="3">
         <v>2</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AI24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="5">
         <v>4</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="BA24" s="5">
         <v>4</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="BB24" s="5">
         <v>4</v>
       </c>
-      <c r="AL24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AT24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AV24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AW24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AX24" s="5">
-        <v>4</v>
-      </c>
-      <c r="AY24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AZ24" s="3">
-        <v>2</v>
-      </c>
-      <c r="BA24" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB24" s="3">
-        <v>2</v>
-      </c>
-      <c r="BC24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BD24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BE24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BF24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BG24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BH24" s="5">
-        <v>4</v>
-      </c>
-      <c r="BI24" s="5">
-        <v>4</v>
+      <c r="BC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BI24" s="3">
+        <v>2</v>
       </c>
       <c r="BJ24" s="3">
         <v>2</v>
@@ -56837,179 +56834,179 @@
       <c r="BM24" s="3">
         <v>2</v>
       </c>
-      <c r="BN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS24" s="1">
-        <v>1</v>
+      <c r="BN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BU24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BV24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BZ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CD24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CS24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CT24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CU24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CV24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CY24" s="3">
+        <v>2</v>
+      </c>
+      <c r="CZ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DA24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DB24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DF24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DG24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DH24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DJ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DL24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DN24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DP24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DQ24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR24" s="3">
+        <v>2</v>
+      </c>
+      <c r="DS24" s="3">
+        <v>2</v>
       </c>
       <c r="DT24" s="1">
         <v>1</v>
